--- a/Pruebas/Sigma.xlsx
+++ b/Pruebas/Sigma.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:ADX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,124 +435,2404 @@
         <v>0.7071067811865476</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7071067811668048</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7071067811668048</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="G1" t="n">
         <v>0.7071067811865476</v>
       </c>
       <c r="H1" t="n">
-        <v>0.3333333612185104</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3162279334940111</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3015116157209864</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="K1" t="n">
-        <v>0.2886751535631787</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2773503372356548</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="M1" t="n">
-        <v>0.26726352193769</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2582005511891697</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2500000956722624</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2425356462496347</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2357024629157399</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="R1" t="n">
-        <v>0.2294160323711237</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="S1" t="n">
-        <v>0.2236069045554452</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="T1" t="n">
-        <v>0.2182179038704535</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="U1" t="n">
-        <v>0.2132009195964981</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="V1" t="n">
-        <v>0.2085147115311195</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="W1" t="n">
-        <v>0.2041241565268009</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2000000428703805</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.1961172154171174</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.1924515341244302</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.1889822809086388</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.1856953989014777</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.1825758844122176</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.1796069865997049</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.1767767527289024</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.1740777049684393</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.171500530139536</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.1690340458539566</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.2527032857281241</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2524968112284098</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.3148186915744017</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3117213688781119</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.2827205802000069</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.2594276226911099</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.3557006868918355</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.3532195559024489</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2790325593691657</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.2781197796026564</v>
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>0.4082482904638629</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>0.4472135954999579</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>0.3779644730092271</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>0.3535533905932736</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>0.447213595499958</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0.3162277660168384</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>0.4082482904638629</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0.3015113445777646</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0.3779644730092271</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0.4472135954999579</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0.2886751345948137</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0.408248290463863</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0.3535533905932735</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>0.3779644730092271</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>0.3333333333333331</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0.3535533905932739</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>0.3162277660168383</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0.4472135954999578</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0.301511344577765</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>0.2773500981126149</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0.2886751345948141</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>0.267261241912427</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>0.2773500981126153</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>0.267261241912425</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>0.3162277660168384</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>0.2581988897471639</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>0.2581988897471641</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>0.408248290463863</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>0.2500000000000056</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>0.2500000000000024</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>0.2425356250363385</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>0.4082482904638631</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>0.2425356250363353</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>0.2357022603955225</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>0.2294157338705689</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>0.2236067977499885</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>0.3015113445777642</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>0.2182178902360022</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>0.2357022603955206</v>
+      </c>
+      <c r="FR1" t="n">
+        <v>0.3779644730092274</v>
+      </c>
+      <c r="FS1" t="n">
+        <v>0.2886751345948141</v>
+      </c>
+      <c r="FT1" t="n">
+        <v>0.2773500981126155</v>
+      </c>
+      <c r="FU1" t="n">
+        <v>0.2672612419124256</v>
+      </c>
+      <c r="FV1" t="n">
+        <v>0.2294157338705684</v>
+      </c>
+      <c r="FW1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="FX1" t="n">
+        <v>0.4082482904638631</v>
+      </c>
+      <c r="FY1" t="n">
+        <v>0.2132007163556163</v>
+      </c>
+      <c r="FZ1" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="GA1" t="n">
+        <v>0.2236067977499868</v>
+      </c>
+      <c r="GB1" t="n">
+        <v>0.408248290463863</v>
+      </c>
+      <c r="GC1" t="n">
+        <v>0.2182178902360017</v>
+      </c>
+      <c r="GD1" t="n">
+        <v>0.2581988897471645</v>
+      </c>
+      <c r="GE1" t="n">
+        <v>0.2500000000000053</v>
+      </c>
+      <c r="GF1" t="n">
+        <v>0.2085144140570768</v>
+      </c>
+      <c r="GG1" t="n">
+        <v>0.2425356250363392</v>
+      </c>
+      <c r="GH1" t="n">
+        <v>0.4472135954999581</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>0.4082482904638632</v>
+      </c>
+      <c r="GJ1" t="n">
+        <v>0.3779644730092273</v>
+      </c>
+      <c r="GK1" t="n">
+        <v>0.4082482904638631</v>
+      </c>
+      <c r="GL1" t="n">
+        <v>0.2132007163556176</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>0.3779644730092273</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>0.3779644730092274</v>
+      </c>
+      <c r="GO1" t="n">
+        <v>0.2041241452319336</v>
+      </c>
+      <c r="GP1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>0.2357022603955216</v>
+      </c>
+      <c r="GR1" t="n">
+        <v>0.377964473009227</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>0.3779644730092271</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>0.2000000000000137</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>0.3535533905932741</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>0.2085144140570747</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>0.1961161351381933</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>0.2041241452319341</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>0.2294157338705679</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>0.192450089729893</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>0.2236067977499868</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>0.2182178902360014</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>0.2132007163556163</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>0.1889822365046124</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>0.2000000000000081</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>0.1961161351381825</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>0.3535533905932739</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>0.1924500897298817</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>0.2085144140570768</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>0.3535533905932742</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>0.1889822365046127</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>0.2041241452319322</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>0.1856953381770565</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>0.1825741858350581</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>0.4082482904638632</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>0.1856953381770559</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>0.1796053020267767</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>0.17677669529664</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>0.1740776559556994</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>0.1825741858350599</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>0.1714985851425208</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>0.3162277660168386</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>0.1690308509457175</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>0.3162277660168383</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>0.1666666666666844</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>0.2000000000000068</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>0.1643989873053838</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>0.3333333333333331</v>
+      </c>
+      <c r="II1" t="n">
+        <v>0.1622214211307813</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>0.1601281538051267</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>0.1796053020267686</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>0.301511344577764</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>0.1581138830084612</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>0.1561737618886502</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>0.1543033499621514</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>0.1767766952966501</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>0.1524985703326445</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>0.1961161351381871</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>0.1507556722889009</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>0.3162277660168384</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>0.1490711985000639</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>0.1474419561548892</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>0.145864991497962</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>0.1443375672974623</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>0.1428571428572012</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>0.1414213562373614</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>0.1400280084028538</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>0.1386750490563639</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>0.1373605639486825</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>0.1924500897298797</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>0.1360827634879236</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>0.1740776559556898</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>0.1348399724926735</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>0.1714985851425234</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>0.1336306209562797</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>0.3015113445777642</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>0.132453235706575</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>0.1313064328598102</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>0.1301889109808134</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>0.2886751345948135</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>0.1290994448736698</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>0.1889822365046156</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>0.1280368799330066</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>0.1270001270001445</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>0.1259881576697889</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>0.1249999999999929</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>0.1856953381770541</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>0.1240347345892378</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>0.1230914909792713</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>0.377964473009227</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>0.2773500981126147</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>0.122169444356384</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>0.1212678125181635</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>0.1690308509457165</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>0.1203858530857252</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>0.1825741858350611</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>0.1195228609334057</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>0.3015113445777637</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>0.1186781658192805</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>0.1178511301977181</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>0.1170411471961924</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>0.1796053020267754</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>0.2672612419124243</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>0.1162476387436917</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>0.1154700538377702</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>0.1666666666666907</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>0.114707866935389</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>0.1767766952966513</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>0.1139605764596687</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>0.2886751345948135</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>0.1132277034143456</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>0.1125087900924981</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>0.1118033988748671</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>0.2886751345948135</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>0.1111111111111433</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>0.1104315260749225</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>0.1097642599897861</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>0.1740776559556955</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>0.1091089451178647</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>0.1714985851425306</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>0.1084652289092143</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>0.107832773203648</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>0.1072112534835884</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>0.1066003581776474</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>0.169030850945726</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>0.1059997880007147</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>0.1643989873053602</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>0.1054092553388457</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>0.1048284836721164</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>0.1042572070287799</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>0.1036951694729269</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>0.1031421246258</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>0.1025978352086368</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>0.1020620726158644</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>0.1015346165132764</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>0.1010152544554706</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>0.1666666666666934</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>0.1005037815258376</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>0.1000000000002432</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>0.09950371902125782</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>0.09901475429751364</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>0.09853292781640338</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>0.098058067568862</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>0.09759000729466259</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>0.09712858623576012</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>0.09667364890466686</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>0.09622504486524129</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>0.09578262852201691</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>0.1643989873053379</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>0.09534625892444018</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>0.09491579957572957</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>0.1622214211307529</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>0.09449111825200585</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>0.09407208683877877</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>0.09365858115842915</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>0.25819888974716</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>0.2500000000000009</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>0.09325048082379538</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>0.09284766908831288</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>0.09245003270401435</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>0.1601281538051239</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>0.09205746178937634</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>0.1581138830084545</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>0.09166984970260902</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>0.3535533905932741</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>0.09128709291732685</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>0.09090909090877446</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>0.09053574604294165</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>0.09016696346730803</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>0.08980265101327924</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0.08944271910042607</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0.08908708063732509</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0.2425356250363344</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0.08873565094131228</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0.0883883476484453</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>0.08804509063322447</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>0.1561737618886417</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0.08770580193045213</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0.08737040566678306</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0.0870388279777022</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0.154303349962138</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0.08671099695280667</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0.1524985703326241</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0.08638684255904283</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0.08606629658302692</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0.08574929257074868</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0.1507556722888766</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0.08543576577150126</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0.08512565307644955</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0.08481889296762443</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0.08451542547253559</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0.08421519210714698</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0.08391813582951076</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0.08362420100054303</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0.08333333333292618</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0.08304547985437975</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0.149071198500036</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0.08276058886086478</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0.08247860988475457</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0.08219949365356424</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0.08192319205176915</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0.08164965809368797</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0.1474419561548922</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0.1458649914979521</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>0.081378845877859</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>0.08111071056493414</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>0.08084520834500404</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>0.08058229640233723</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>0.14433756729745</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>0.08032193289095907</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>0.08006407690202065</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>0.07980868844677681</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>0.07955572841837913</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>0.0793051585718319</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>0.1428571428572001</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>0.07905694150367218</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>0.141421356237363</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>0.07881104062465605</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>0.07856742013267393</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>0.07832604499818673</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>0.07808688094485329</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>0.07784989441716295</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>0.2357022603955187</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>0.07761505256997363</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>0.07738232325455531</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>0.07715167498047165</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>0.1400280084028285</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>0.07692307692400732</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>0.2773500981126147</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>0.07669649888421434</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>0.2294157338705645</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>0.07647191129014987</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>0.162221421130757</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>0.07624928516713816</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>0.07602859212813035</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>0.07580980435913839</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>0.2672612419124256</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>0.07559289460110788</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>0.1386750490563262</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>0.07537783614584047</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>0.2581988897471609</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>0.07516460279953441</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>0.1373605639487092</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>0.07495316890057273</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>0.1601281538051194</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>0.07474350927662879</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>0.2236067977499805</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>0.07453559924934938</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>0.2499999999999984</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>0.07432941462417882</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>0.07412493166542476</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>0.07392212709627735</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>0.2425356250363337</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>0.07372097807880788</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>0.1360827634879269</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>0.07352146220962956</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>0.07332355751059333</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>0.07312724241412287</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>0.07293249575039291</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>0.07273929674592719</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>0.1581138830084499</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>0.07254762501231737</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>0.1348399724926941</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>0.07235746052817237</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>0.07216878365023338</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>0.07198157507629319</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>0.07179581586102833</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>0.07161148740316024</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>0.07142857142727634</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>0.07124704998916494</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>0.0710669054531592</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>0.07088812050237799</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>0.07071067811948693</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>0.07053456158460124</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>0.07035975447388919</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>0.07018624063390404</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>0.07001400420038074</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>0.06984302957778683</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>0.1336306209562144</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>0.06967330142918007</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>0.0695048046874536</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>0.06933752452709993</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>0.1324532357064761</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>0.06917144638843417</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>0.06900655593313805</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>0.06884283908424021</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>0.2182178902359976</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>0.06868028197525258</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>0.1561737618886385</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>0.0685188709813853</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>0.1313064328597924</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>0.06835859270265919</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>0.06819943394598096</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>0.06804138174589537</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>0.06788442332886939</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>0.06772854614649888</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>0.06757373784077625</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>0.06741998624486502</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>0.06726727939858143</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>0.06711560551983391</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>0.1543033499621244</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>0.06696495302024205</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>0.06681531047689299</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>0.06666666666875022</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>0.06651901052516929</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>0.06637233116188847</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>0.06622661785526314</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>0.06608186004741005</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>0.06593804733767841</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>0.06579516949443351</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>0.06565321642820476</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>0.0655121782059843</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>0.06537204504467965</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>0.06523280730674411</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>0.06509445548880009</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>0.06495698024488424</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>0.0648203723544216</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>0.06468462273385756</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>0.1301889109807955</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>0.06454972243596631</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>0.06441566263929532</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>0.06428243465240185</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>0.06415002990920457</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>0.06401843996497524</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>0.06388765650219526</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>0.0637576713047481</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>0.0636284763002922</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>0.06350006349970008</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>0.06337242505490785</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>0.06324555320423303</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>0.1290994448735528</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>0.06311944030932648</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>0.06299407883370965</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>0.06286946134484557</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>0.06274558051280724</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>0.06262242910734828</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>0.06250000000031974</v>
+      </c>
+      <c r="TO1" t="n">
+        <v>0.06237828615397015</v>
+      </c>
+      <c r="TP1" t="n">
+        <v>0.06225728063799558</v>
+      </c>
+      <c r="TQ1" t="n">
+        <v>0.06213697659902289</v>
+      </c>
+      <c r="TR1" t="n">
+        <v>0.06201736729339485</v>
+      </c>
+      <c r="TS1" t="n">
+        <v>0.06189844606137526</v>
+      </c>
+      <c r="TT1" t="n">
+        <v>0.1280368799329875</v>
+      </c>
+      <c r="TU1" t="n">
+        <v>0.06178020631975195</v>
+      </c>
+      <c r="TV1" t="n">
+        <v>0.06166264160037228</v>
+      </c>
+      <c r="TW1" t="n">
+        <v>0.0615457454891865</v>
+      </c>
+      <c r="TX1" t="n">
+        <v>0.1270001270001725</v>
+      </c>
+      <c r="TY1" t="n">
+        <v>0.06142951168351982</v>
+      </c>
+      <c r="TZ1" t="n">
+        <v>0.1259881576697144</v>
+      </c>
+      <c r="UA1" t="n">
+        <v>0.06131393395081634</v>
+      </c>
+      <c r="UB1" t="n">
+        <v>0.06119900613801105</v>
+      </c>
+      <c r="UC1" t="n">
+        <v>0.0610847221762584</v>
+      </c>
+      <c r="UD1" t="n">
+        <v>0.06097107608683758</v>
+      </c>
+      <c r="UE1" t="n">
+        <v>0.06085806194275411</v>
+      </c>
+      <c r="UF1" t="n">
+        <v>0.1250000000000417</v>
+      </c>
+      <c r="UG1" t="n">
+        <v>0.06074567392081108</v>
+      </c>
+      <c r="UH1" t="n">
+        <v>0.06063390625743521</v>
+      </c>
+      <c r="UI1" t="n">
+        <v>0.06052275326524478</v>
+      </c>
+      <c r="UJ1" t="n">
+        <v>0.06041220933611656</v>
+      </c>
+      <c r="UK1" t="n">
+        <v>0.06030226891762047</v>
+      </c>
+      <c r="UL1" t="n">
+        <v>0.06019292654420443</v>
+      </c>
+      <c r="UM1" t="n">
+        <v>0.06008417681594017</v>
+      </c>
+      <c r="UN1" t="n">
+        <v>0.05997601438879791</v>
+      </c>
+      <c r="UO1" t="n">
+        <v>0.05986843401189421</v>
+      </c>
+      <c r="UP1" t="n">
+        <v>0.1240347345891791</v>
+      </c>
+      <c r="UQ1" t="n">
+        <v>0.05976143046480144</v>
+      </c>
+      <c r="UR1" t="n">
+        <v>0.05965499862519792</v>
+      </c>
+      <c r="US1" t="n">
+        <v>0.05954913341474623</v>
+      </c>
+      <c r="UT1" t="n">
+        <v>0.05944382983012056</v>
+      </c>
+      <c r="UU1" t="n">
+        <v>0.05933908290847368</v>
+      </c>
+      <c r="UV1" t="n">
+        <v>0.0592348877780966</v>
+      </c>
+      <c r="UW1" t="n">
+        <v>0.05913123960196815</v>
+      </c>
+      <c r="UX1" t="n">
+        <v>0.05902813360764361</v>
+      </c>
+      <c r="UY1" t="n">
+        <v>0.05892556509678561</v>
+      </c>
+      <c r="UZ1" t="n">
+        <v>0.05882352941517659</v>
+      </c>
+      <c r="VA1" t="n">
+        <v>0.05872202195314551</v>
+      </c>
+      <c r="VB1" t="n">
+        <v>0.05862103817369502</v>
+      </c>
+      <c r="VC1" t="n">
+        <v>0.05852057359956984</v>
+      </c>
+      <c r="VD1" t="n">
+        <v>0.05842062378709124</v>
+      </c>
+      <c r="VE1" t="n">
+        <v>0.05832118435311408</v>
+      </c>
+      <c r="VF1" t="n">
+        <v>0.05822225097164566</v>
+      </c>
+      <c r="VG1" t="n">
+        <v>0.05812381937357734</v>
+      </c>
+      <c r="VH1" t="n">
+        <v>0.0580258853165817</v>
+      </c>
+      <c r="VI1" t="n">
+        <v>0.05792844463986172</v>
+      </c>
+      <c r="VJ1" t="n">
+        <v>0.1524985703326405</v>
+      </c>
+      <c r="VK1" t="n">
+        <v>0.05783149319567085</v>
+      </c>
+      <c r="VL1" t="n">
+        <v>0.05773502691519039</v>
+      </c>
+      <c r="VM1" t="n">
+        <v>0.057639041772033</v>
+      </c>
+      <c r="VN1" t="n">
+        <v>0.2357022603955161</v>
+      </c>
+      <c r="VO1" t="n">
+        <v>0.05754353376587595</v>
+      </c>
+      <c r="VP1" t="n">
+        <v>0.05744849896539062</v>
+      </c>
+      <c r="VQ1" t="n">
+        <v>0.0573539334658807</v>
+      </c>
+      <c r="VR1" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="VS1" t="n">
+        <v>0.05725983342705686</v>
+      </c>
+      <c r="VT1" t="n">
+        <v>0.05716619504491208</v>
+      </c>
+      <c r="VU1" t="n">
+        <v>0.05707301455407186</v>
+      </c>
+      <c r="VV1" t="n">
+        <v>0.05698028823289775</v>
+      </c>
+      <c r="VW1" t="n">
+        <v>0.05688801239456749</v>
+      </c>
+      <c r="VX1" t="n">
+        <v>0.05679618342123247</v>
+      </c>
+      <c r="VY1" t="n">
+        <v>0.05670479770881649</v>
+      </c>
+      <c r="VZ1" t="n">
+        <v>0.1507556722888549</v>
+      </c>
+      <c r="WA1" t="n">
+        <v>0.0566138517045862</v>
+      </c>
+      <c r="WB1" t="n">
+        <v>0.05652334189792269</v>
+      </c>
+      <c r="WC1" t="n">
+        <v>0.05643326479820674</v>
+      </c>
+      <c r="WD1" t="n">
+        <v>0.0563436169790744</v>
+      </c>
+      <c r="WE1" t="n">
+        <v>0.05625439504781211</v>
+      </c>
+      <c r="WF1" t="n">
+        <v>0.1490711985000192</v>
+      </c>
+      <c r="WG1" t="n">
+        <v>0.05616559562815071</v>
+      </c>
+      <c r="WH1" t="n">
+        <v>0.2294157338705631</v>
+      </c>
+      <c r="WI1" t="n">
+        <v>0.05607721540905791</v>
+      </c>
+      <c r="WJ1" t="n">
+        <v>0.05598925109740788</v>
+      </c>
+      <c r="WK1" t="n">
+        <v>0.05590169944099055</v>
+      </c>
+      <c r="WL1" t="n">
+        <v>0.05581455721887423</v>
+      </c>
+      <c r="WM1" t="n">
+        <v>0.05572782125340595</v>
+      </c>
+      <c r="WN1" t="n">
+        <v>0.05564148841171208</v>
+      </c>
+      <c r="WO1" t="n">
+        <v>0.05555555555754609</v>
+      </c>
+      <c r="WP1" t="n">
+        <v>0.1474419561548741</v>
+      </c>
+      <c r="WQ1" t="n">
+        <v>0.0554700196253411</v>
+      </c>
+      <c r="WR1" t="n">
+        <v>0.1458649914979339</v>
+      </c>
+      <c r="WS1" t="n">
+        <v>0.05538487756012532</v>
+      </c>
+      <c r="WT1" t="n">
+        <v>0.05530012636289975</v>
+      </c>
+      <c r="WU1" t="n">
+        <v>0.05521576303867295</v>
+      </c>
+      <c r="WV1" t="n">
+        <v>0.2236067977499835</v>
+      </c>
+      <c r="WW1" t="n">
+        <v>0.1230914909793092</v>
+      </c>
+      <c r="WX1" t="n">
+        <v>0.05513178463846675</v>
+      </c>
+      <c r="WY1" t="n">
+        <v>0.05504818825843687</v>
+      </c>
+      <c r="WZ1" t="n">
+        <v>0.05496497098963158</v>
+      </c>
+      <c r="XA1" t="n">
+        <v>0.2132007163556127</v>
+      </c>
+      <c r="XB1" t="n">
+        <v>0.05488212999990585</v>
+      </c>
+      <c r="XC1" t="n">
+        <v>0.05479966243873281</v>
+      </c>
+      <c r="XD1" t="n">
+        <v>0.1443375672974412</v>
+      </c>
+      <c r="XE1" t="n">
+        <v>0.2085144140570768</v>
+      </c>
+      <c r="XF1" t="n">
+        <v>0.05471756551205403</v>
+      </c>
+      <c r="XG1" t="n">
+        <v>0.05463583647481465</v>
+      </c>
+      <c r="XH1" t="n">
+        <v>0.142857142857181</v>
+      </c>
+      <c r="XI1" t="n">
+        <v>0.05455447255527077</v>
+      </c>
+      <c r="XJ1" t="n">
+        <v>0.05447347106686942</v>
+      </c>
+      <c r="XK1" t="n">
+        <v>0.05439282932366597</v>
+      </c>
+      <c r="XL1" t="n">
+        <v>0.05431254466319509</v>
+      </c>
+      <c r="XM1" t="n">
+        <v>0.05423261445073752</v>
+      </c>
+      <c r="XN1" t="n">
+        <v>0.05415303610600333</v>
+      </c>
+      <c r="XO1" t="n">
+        <v>0.05407380703898201</v>
+      </c>
+      <c r="XP1" t="n">
+        <v>0.2182178902359945</v>
+      </c>
+      <c r="XQ1" t="n">
+        <v>0.2041241452319317</v>
+      </c>
+      <c r="XR1" t="n">
+        <v>0.1221694443563676</v>
+      </c>
+      <c r="XS1" t="n">
+        <v>0.05399492471274365</v>
+      </c>
+      <c r="XT1" t="n">
+        <v>0.1414213562373461</v>
+      </c>
+      <c r="XU1" t="n">
+        <v>0.2000000000000051</v>
+      </c>
+      <c r="XV1" t="n">
+        <v>0.05391638660369914</v>
+      </c>
+      <c r="XW1" t="n">
+        <v>0.05383819020239907</v>
+      </c>
+      <c r="XX1" t="n">
+        <v>0.05376033306000765</v>
+      </c>
+      <c r="XY1" t="n">
+        <v>0.1212678125181246</v>
+      </c>
+      <c r="XZ1" t="n">
+        <v>0.05368281271338009</v>
+      </c>
+      <c r="YA1" t="n">
+        <v>0.05360562674396313</v>
+      </c>
+      <c r="YB1" t="n">
+        <v>0.05352877275477044</v>
+      </c>
+      <c r="YC1" t="n">
+        <v>0.1961161351381871</v>
+      </c>
+      <c r="YD1" t="n">
+        <v>0.1203858530857363</v>
+      </c>
+      <c r="YE1" t="n">
+        <v>0.05345224838710972</v>
+      </c>
+      <c r="YF1" t="n">
+        <v>0.1400280084028451</v>
+      </c>
+      <c r="YG1" t="n">
+        <v>0.1195228609334025</v>
+      </c>
+      <c r="YH1" t="n">
+        <v>0.192450089729882</v>
+      </c>
+      <c r="YI1" t="n">
+        <v>0.05337605126453265</v>
+      </c>
+      <c r="YJ1" t="n">
+        <v>0.2132007163556093</v>
+      </c>
+      <c r="YK1" t="n">
+        <v>0.1186781658193862</v>
+      </c>
+      <c r="YL1" t="n">
+        <v>0.05330017908468433</v>
+      </c>
+      <c r="YM1" t="n">
+        <v>0.0532246295453259</v>
+      </c>
+      <c r="YN1" t="n">
+        <v>0.2085144140570726</v>
+      </c>
+      <c r="YO1" t="n">
+        <v>0.1889822365046162</v>
+      </c>
+      <c r="YP1" t="n">
+        <v>0.05314940034914643</v>
+      </c>
+      <c r="YQ1" t="n">
+        <v>0.0530744892416097</v>
+      </c>
+      <c r="YR1" t="n">
+        <v>0.1386750490563591</v>
+      </c>
+      <c r="YS1" t="n">
+        <v>0.1178511301977172</v>
+      </c>
+      <c r="YT1" t="n">
+        <v>0.05299989399608612</v>
+      </c>
+      <c r="YU1" t="n">
+        <v>0.05292561239943987</v>
+      </c>
+      <c r="YV1" t="n">
+        <v>0.05285164226080134</v>
+      </c>
+      <c r="YW1" t="n">
+        <v>0.05277798139200424</v>
+      </c>
+      <c r="YX1" t="n">
+        <v>0.2041241452319279</v>
+      </c>
+      <c r="YY1" t="n">
+        <v>0.05270462766649852</v>
+      </c>
+      <c r="YZ1" t="n">
+        <v>0.05263157894440126</v>
+      </c>
+      <c r="ZA1" t="n">
+        <v>0.05255883312690116</v>
+      </c>
+      <c r="ZB1" t="n">
+        <v>0.1373605639486737</v>
+      </c>
+      <c r="ZC1" t="n">
+        <v>0.05248638811161603</v>
+      </c>
+      <c r="ZD1" t="n">
+        <v>0.05241424183293763</v>
+      </c>
+      <c r="ZE1" t="n">
+        <v>0.05234239225563708</v>
+      </c>
+      <c r="ZF1" t="n">
+        <v>0.05227083735064894</v>
+      </c>
+      <c r="ZG1" t="n">
+        <v>0.05219957510294272</v>
+      </c>
+      <c r="ZH1" t="n">
+        <v>0.05212860350992779</v>
+      </c>
+      <c r="ZI1" t="n">
+        <v>0.05205792063070314</v>
+      </c>
+      <c r="ZJ1" t="n">
+        <v>0.05198752448734303</v>
+      </c>
+      <c r="ZK1" t="n">
+        <v>0.05191741316964296</v>
+      </c>
+      <c r="ZL1" t="n">
+        <v>0.05184758473520754</v>
+      </c>
+      <c r="ZM1" t="n">
+        <v>0.0517780373089369</v>
+      </c>
+      <c r="ZN1" t="n">
+        <v>0.05170876900288795</v>
+      </c>
+      <c r="ZO1" t="n">
+        <v>0.05163977795624898</v>
+      </c>
+      <c r="ZP1" t="n">
+        <v>0.05157106230579092</v>
+      </c>
+      <c r="ZQ1" t="n">
+        <v>0.05150262026707945</v>
+      </c>
+      <c r="ZR1" t="n">
+        <v>0.05143444999127979</v>
+      </c>
+      <c r="ZS1" t="n">
+        <v>0.05136654970069627</v>
+      </c>
+      <c r="ZT1" t="n">
+        <v>0.05129891760729419</v>
+      </c>
+      <c r="ZU1" t="n">
+        <v>0.05123155195128612</v>
+      </c>
+      <c r="ZV1" t="n">
+        <v>0.05116445100700779</v>
+      </c>
+      <c r="ZW1" t="n">
+        <v>0.05109761303314106</v>
+      </c>
+      <c r="ZX1" t="n">
+        <v>0.05103103630039408</v>
+      </c>
+      <c r="ZY1" t="n">
+        <v>0.05096471914448798</v>
+      </c>
+      <c r="ZZ1" t="n">
+        <v>0.05089865985933158</v>
+      </c>
+      <c r="AAA1" t="n">
+        <v>0.05083285677082403</v>
+      </c>
+      <c r="AAB1" t="n">
+        <v>0.1360827634879387</v>
+      </c>
+      <c r="AAC1" t="n">
+        <v>0.05076730825292598</v>
+      </c>
+      <c r="AAD1" t="n">
+        <v>0.0507020126590899</v>
+      </c>
+      <c r="AAE1" t="n">
+        <v>0.05063696835053599</v>
+      </c>
+      <c r="AAF1" t="n">
+        <v>0.2000000000000043</v>
+      </c>
+      <c r="AAG1" t="n">
+        <v>0.05057217374685125</v>
+      </c>
+      <c r="AAH1" t="n">
+        <v>0.05050762722500001</v>
+      </c>
+      <c r="AAI1" t="n">
+        <v>0.05044332722355345</v>
+      </c>
+      <c r="AAJ1" t="n">
+        <v>0.1348399724926764</v>
+      </c>
+      <c r="AAK1" t="n">
+        <v>0.05037927218076342</v>
+      </c>
+      <c r="AAL1" t="n">
+        <v>0.05031546054434426</v>
+      </c>
+      <c r="AAM1" t="n">
+        <v>0.0502518907544665</v>
+      </c>
+      <c r="AAN1" t="n">
+        <v>0.05018856131563115</v>
+      </c>
+      <c r="AAO1" t="n">
+        <v>0.05012547070685861</v>
+      </c>
+      <c r="AAP1" t="n">
+        <v>0.05006261742964719</v>
+      </c>
+      <c r="AAQ1" t="n">
+        <v>0.04999999999446723</v>
+      </c>
+      <c r="AAR1" t="n">
+        <v>0.04993761693876171</v>
+      </c>
+      <c r="AAS1" t="n">
+        <v>0.04987546681020803</v>
+      </c>
+      <c r="AAT1" t="n">
+        <v>0.04981354814060102</v>
+      </c>
+      <c r="AAU1" t="n">
+        <v>0.04975185951220883</v>
+      </c>
+      <c r="AAV1" t="n">
+        <v>0.04969039949174715</v>
+      </c>
+      <c r="AAW1" t="n">
+        <v>0.04962916670518881</v>
+      </c>
+      <c r="AAX1" t="n">
+        <v>0.1336306209562664</v>
+      </c>
+      <c r="AAY1" t="n">
+        <v>0.04956815970103518</v>
+      </c>
+      <c r="AAZ1" t="n">
+        <v>0.04950737714494619</v>
+      </c>
+      <c r="ABA1" t="n">
+        <v>0.04944681763802462</v>
+      </c>
+      <c r="ABB1" t="n">
+        <v>0.1961161351381862</v>
+      </c>
+      <c r="ABC1" t="n">
+        <v>0.04938647983433637</v>
+      </c>
+      <c r="ABD1" t="n">
+        <v>0.04932636236450448</v>
+      </c>
+      <c r="ABE1" t="n">
+        <v>0.04926646390746874</v>
+      </c>
+      <c r="ABF1" t="n">
+        <v>0.04920678313364759</v>
+      </c>
+      <c r="ABG1" t="n">
+        <v>0.04914731872281936</v>
+      </c>
+      <c r="ABH1" t="n">
+        <v>0.04908806935820439</v>
+      </c>
+      <c r="ABI1" t="n">
+        <v>0.04902903378043374</v>
+      </c>
+      <c r="ABJ1" t="n">
+        <v>0.04897021068560604</v>
+      </c>
+      <c r="ABK1" t="n">
+        <v>0.04891159879854978</v>
+      </c>
+      <c r="ABL1" t="n">
+        <v>0.04885319688079869</v>
+      </c>
+      <c r="ABM1" t="n">
+        <v>0.04879500364331514</v>
+      </c>
+      <c r="ABN1" t="n">
+        <v>0.04873701788689005</v>
+      </c>
+      <c r="ABO1" t="n">
+        <v>0.04867923834369844</v>
+      </c>
+      <c r="ABP1" t="n">
+        <v>0.04862166383555772</v>
+      </c>
+      <c r="ABQ1" t="n">
+        <v>0.0485642931228243</v>
+      </c>
+      <c r="ABR1" t="n">
+        <v>0.1170411471960597</v>
+      </c>
+      <c r="ABS1" t="n">
+        <v>0.04850712499988266</v>
+      </c>
+      <c r="ABT1" t="n">
+        <v>0.04845015832037102</v>
+      </c>
+      <c r="ABU1" t="n">
+        <v>0.04839339185188839</v>
+      </c>
+      <c r="ABV1" t="n">
+        <v>0.04833682445803248</v>
+      </c>
+      <c r="ABW1" t="n">
+        <v>0.0482804549674964</v>
+      </c>
+      <c r="ABX1" t="n">
+        <v>0.04822428222337048</v>
+      </c>
+      <c r="ABY1" t="n">
+        <v>0.04816830507668308</v>
+      </c>
+      <c r="ABZ1" t="n">
+        <v>0.04811252242621371</v>
+      </c>
+      <c r="ACA1" t="n">
+        <v>0.04805693312378945</v>
+      </c>
+      <c r="ACB1" t="n">
+        <v>0.04800153607982803</v>
+      </c>
+      <c r="ACC1" t="n">
+        <v>0.04794633015560244</v>
+      </c>
+      <c r="ACD1" t="n">
+        <v>0.04789131426823172</v>
+      </c>
+      <c r="ACE1" t="n">
+        <v>0.04783648731854117</v>
+      </c>
+      <c r="ACF1" t="n">
+        <v>0.04778184825110436</v>
+      </c>
+      <c r="ACG1" t="n">
+        <v>0.04772739598805044</v>
+      </c>
+      <c r="ACH1" t="n">
+        <v>0.04767312946865521</v>
+      </c>
+      <c r="ACI1" t="n">
+        <v>0.04761904762948369</v>
+      </c>
+      <c r="ACJ1" t="n">
+        <v>0.0475651494104765</v>
+      </c>
+      <c r="ACK1" t="n">
+        <v>0.04751143380391842</v>
+      </c>
+      <c r="ACL1" t="n">
+        <v>0.04745789978559763</v>
+      </c>
+      <c r="ACM1" t="n">
+        <v>0.04740454631340267</v>
+      </c>
+      <c r="ACN1" t="n">
+        <v>0.04735137238582802</v>
+      </c>
+      <c r="ACO1" t="n">
+        <v>0.0472983769930095</v>
+      </c>
+      <c r="ACP1" t="n">
+        <v>0.04724555913203805</v>
+      </c>
+      <c r="ACQ1" t="n">
+        <v>0.04719291780895977</v>
+      </c>
+      <c r="ACR1" t="n">
+        <v>0.04714045208049403</v>
+      </c>
+      <c r="ACS1" t="n">
+        <v>0.04708816093326131</v>
+      </c>
+      <c r="ACT1" t="n">
+        <v>0.04703604341272017</v>
+      </c>
+      <c r="ACU1" t="n">
+        <v>0.0469840985777368</v>
+      </c>
+      <c r="ACV1" t="n">
+        <v>0.04693232544742715</v>
+      </c>
+      <c r="ACW1" t="n">
+        <v>0.04688072308907756</v>
+      </c>
+      <c r="ACX1" t="n">
+        <v>0.04682929057209984</v>
+      </c>
+      <c r="ACY1" t="n">
+        <v>0.04677802696282452</v>
+      </c>
+      <c r="ACZ1" t="n">
+        <v>0.04672693134519834</v>
+      </c>
+      <c r="ADA1" t="n">
+        <v>0.04667600280754997</v>
+      </c>
+      <c r="ADB1" t="n">
+        <v>0.04662524040694368</v>
+      </c>
+      <c r="ADC1" t="n">
+        <v>0.04657464327260764</v>
+      </c>
+      <c r="ADD1" t="n">
+        <v>0.04652421051823741</v>
+      </c>
+      <c r="ADE1" t="n">
+        <v>0.04647394123664406</v>
+      </c>
+      <c r="ADF1" t="n">
+        <v>0.1162476387437771</v>
+      </c>
+      <c r="ADG1" t="n">
+        <v>0.04642383455077431</v>
+      </c>
+      <c r="ADH1" t="n">
+        <v>0.0463738895824286</v>
+      </c>
+      <c r="ADI1" t="n">
+        <v>0.04632410546712093</v>
+      </c>
+      <c r="ADJ1" t="n">
+        <v>0.04627448133881715</v>
+      </c>
+      <c r="ADK1" t="n">
+        <v>0.04622501634720391</v>
+      </c>
+      <c r="ADL1" t="n">
+        <v>0.04617570965793357</v>
+      </c>
+      <c r="ADM1" t="n">
+        <v>0.04612656039429758</v>
+      </c>
+      <c r="ADN1" t="n">
+        <v>0.04607756775804651</v>
+      </c>
+      <c r="ADO1" t="n">
+        <v>0.04602873089021749</v>
+      </c>
+      <c r="ADP1" t="n">
+        <v>0.04598004898920241</v>
+      </c>
+      <c r="ADQ1" t="n">
+        <v>0.04593152121364803</v>
+      </c>
+      <c r="ADR1" t="n">
+        <v>0.04588314677251399</v>
+      </c>
+      <c r="ADS1" t="n">
+        <v>0.04583492484682158</v>
+      </c>
+      <c r="ADT1" t="n">
+        <v>0.04578685465958496</v>
+      </c>
+      <c r="ADU1" t="n">
+        <v>0.04573893537332505</v>
+      </c>
+      <c r="ADV1" t="n">
+        <v>0.04569116623757429</v>
+      </c>
+      <c r="ADW1" t="n">
+        <v>0.04564354645452656</v>
+      </c>
+      <c r="ADX1" t="n">
+        <v>0.04559607525563803</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Sigma.xlsx
+++ b/Pruebas/Sigma.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ADX1"/>
+  <dimension ref="A1:BIR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,2404 +435,4804 @@
         <v>0.7071067811865476</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.7071067811865464</v>
       </c>
       <c r="F1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.7071067811865464</v>
       </c>
       <c r="G1" t="n">
         <v>0.7071067811865476</v>
       </c>
       <c r="H1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.333333618969254</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3162293638422553</v>
       </c>
       <c r="J1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3015137559527924</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2886753031710723</v>
       </c>
       <c r="L1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2773503204366896</v>
       </c>
       <c r="M1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2672628582321931</v>
       </c>
       <c r="N1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2582012103760836</v>
       </c>
       <c r="O1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2500001117070133</v>
       </c>
       <c r="P1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2425357597249141</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2357035095585424</v>
       </c>
       <c r="R1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2294175592177378</v>
       </c>
       <c r="S1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2236068838057731</v>
       </c>
       <c r="T1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.218217910170702</v>
       </c>
       <c r="U1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.213200918981125</v>
       </c>
       <c r="V1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2085148439686724</v>
       </c>
       <c r="W1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2041241559110266</v>
       </c>
       <c r="X1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2000000524179582</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1961174519826644</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1924518720440609</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1889822978237213</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1856953691714703</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1825760537813382</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1796079679075259</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2361104172922701</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1740777060184165</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1715006079594029</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.1690342915644799</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2639509754835991</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3357785236102112</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3773240646546055</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3961719461323245</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3467380302510319</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3735724428400842</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4434495374099646</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4780045095634011</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4284270552627393</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4411154421809184</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.525010113298883</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5145793175999356</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4782968530787544</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4186606104000586</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5657083177927036</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5294713844818399</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4314666833527459</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4175026327477164</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5338565919427948</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5097767898977091</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4274919360416559</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3866025722742052</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4797431500521269</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5002592900511849</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.4253562451889197</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4130853509418639</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4912148221941397</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5083894151063401</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4363881567875899</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4343755329371859</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4920115078427955</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5240746914430747</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.5</v>
+        <v>0.4403242891403837</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4041566935114801</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4926039125800582</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.529910234328932</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.4499215442246429</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.3791486740017763</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4997530014857976</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5059647190191705</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4381526025758066</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3641221031706687</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4914708403856348</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.4696303431020217</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.5</v>
+        <v>0.4029837338690413</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3427707152502223</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.507435773380784</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3334806453573765</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4016744049159993</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3404357799957123</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5306445999133319</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3184430687646453</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4005385532005951</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3402516855269055</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3486422812622591</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.299676887139731</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3013776112812531</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2627643015250559</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.265467720763541</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3253472616426774</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2593761034042971</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.5</v>
+        <v>0.2358100973400828</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2380562869628728</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3619301245100988</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2489168437254778</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.5</v>
+        <v>0.2347328599132016</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2289944879958565</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3847289761886465</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.265711717456212</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.2582738765535707</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.236228521898825</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.400385144338989</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.5</v>
+        <v>0.2914599615107714</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.4082482904638629</v>
+        <v>0.2908447632619346</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.2631952940506461</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.4165781283184365</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.5</v>
+        <v>0.3095192641257923</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.3779644730092271</v>
+        <v>0.3162114065445539</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2935767814593865</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.4238641041291688</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.3535533905932736</v>
+        <v>0.3167042262776923</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3315530439583657</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.5</v>
+        <v>0.31626558166355</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.5</v>
+        <v>0.4302800092981667</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.447213595499958</v>
+        <v>0.3253425180742477</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.3162277660168384</v>
+        <v>0.348821137546285</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.4082482904638629</v>
+        <v>0.3431896707556805</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.43956685465857</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.3015113445777646</v>
+        <v>0.3298211433228829</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.3779644730092271</v>
+        <v>0.3594302966260403</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3644006032661142</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5032718996974406</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.3204814844512997</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.3464245810924347</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.3654257052113055</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5055444397987552</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3190630708296279</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.2886751345948137</v>
+        <v>0.2820209138275009</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.408248290463863</v>
+        <v>0.2565650829038557</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.3535533905932735</v>
+        <v>0.5229334241041516</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.3779644730092271</v>
+        <v>0.3401209581447923</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.3333333333333331</v>
+        <v>0.2825297948775634</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2577402084358292</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.5</v>
+        <v>0.3823012469091046</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.3535533905932739</v>
+        <v>0.3713642658502977</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.3162277660168383</v>
+        <v>0.2959484101302425</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.2569546063144482</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.4472135954999578</v>
+        <v>0.4153975529046745</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.301511344577765</v>
+        <v>0.3805730694534408</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.2773500981126149</v>
+        <v>0.3589476088493715</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.283084853641457</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4721592139048051</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.5</v>
+        <v>0.4157378162157367</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.3484404891862086</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.2886751345948141</v>
+        <v>0.3854102693777466</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.5</v>
+        <v>0.3727274888556874</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.267261241912427</v>
+        <v>0.3318956509522999</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.2773500981126153</v>
+        <v>0.3381031881671331</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.5</v>
+        <v>0.3485071424445659</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.267261241912425</v>
+        <v>0.4241718346600201</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.3162277660168384</v>
+        <v>0.3766693320624573</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.2581988897471639</v>
+        <v>0.3310611612420645</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.2581988897471641</v>
+        <v>0.2561338459102437</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.408248290463863</v>
+        <v>0.4736878573388427</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.2500000000000056</v>
+        <v>0.273398057512301</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.5</v>
+        <v>0.298615909616107</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.2590608827618195</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.2500000000000024</v>
+        <v>0.4933785441124052</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.2874236896906031</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.3108037800113316</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.2425356250363385</v>
+        <v>0.2562732114698025</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.4082482904638631</v>
+        <v>0.3652319235793012</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.2425356250363353</v>
+        <v>0.2552874994320742</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.2357022603955225</v>
+        <v>0.2688845484997173</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.2294157338705689</v>
+        <v>0.2596400128064644</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.2236067977499885</v>
+        <v>0.2408264890645603</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.3015113445777642</v>
+        <v>0.2887533691241311</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.2182178902360022</v>
+        <v>0.3394370045126001</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.2357022603955206</v>
+        <v>0.2940221259344902</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.3779644730092274</v>
+        <v>0.229030895290964</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.2886751345948141</v>
+        <v>0.2129957545373596</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.2773500981126155</v>
+        <v>0.4670569410202776</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.2672612419124256</v>
+        <v>0.288989832449315</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.2294157338705684</v>
+        <v>0.2248131844579661</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.2168578151273402</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.4082482904638631</v>
+        <v>0.290190134912091</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.2132007163556163</v>
+        <v>0.29196821298278</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.2271483363138424</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.2236067977499868</v>
+        <v>0.2190843829315438</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.408248290463863</v>
+        <v>0.2048814189436722</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.2182178902360017</v>
+        <v>0.2951443463851888</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.2581988897471645</v>
+        <v>0.2258551563017863</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.2500000000000053</v>
+        <v>0.2167177638972489</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.2085144140570768</v>
+        <v>0.1930647354189706</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.2425356250363392</v>
+        <v>0.3174350916182113</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.4472135954999581</v>
+        <v>0.2383729229766081</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.4082482904638632</v>
+        <v>0.2268051250392337</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.3779644730092273</v>
+        <v>0.1990906998655949</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.4082482904638631</v>
+        <v>0.3519916943468298</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.2132007163556176</v>
+        <v>0.2619335552448205</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.3779644730092273</v>
+        <v>0.2453578385397918</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.3779644730092274</v>
+        <v>0.1973152537110743</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.2041241452319336</v>
+        <v>0.3766608067561558</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2829566957482184</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.2357022603955216</v>
+        <v>0.2656143973037983</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.377964473009227</v>
+        <v>0.2008334519747859</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.3779644730092271</v>
+        <v>0.3941188486724369</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.2000000000000137</v>
+        <v>0.2980664361795051</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.3535533905932741</v>
+        <v>0.2791393631477135</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.2085144140570747</v>
+        <v>0.2157965644643181</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.404725593844643</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.1961161351381933</v>
+        <v>0.3019899970645515</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.2041241452319341</v>
+        <v>0.2798302416161991</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.2294157338705679</v>
+        <v>0.2276066761436836</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.192450089729893</v>
+        <v>0.4089551888363724</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.2236067977499868</v>
+        <v>0.3054301185642416</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.2182178902360014</v>
+        <v>0.2541397996778021</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.2132007163556163</v>
+        <v>0.240362489793569</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.1889822365046124</v>
+        <v>0.423205934049131</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.5</v>
+        <v>0.3162881967962256</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.2000000000000081</v>
+        <v>0.2568900454612106</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2427998516826677</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.1961161351381825</v>
+        <v>0.2741209485989236</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.3535533905932739</v>
+        <v>0.336262506406221</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.1924500897298817</v>
+        <v>0.2526901152593867</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.2085144140570768</v>
+        <v>0.2427611726727208</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2814311345761811</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.3535533905932742</v>
+        <v>0.3162595416475159</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.1889822365046127</v>
+        <v>0.2374215912477749</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.2041241452319322</v>
+        <v>0.2451532812717202</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.1856953381770565</v>
+        <v>0.2991924401701838</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.4415378689471506</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.1825741858350581</v>
+        <v>0.2291247198671785</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.4082482904638632</v>
+        <v>0.2438093555954712</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.1856953381770559</v>
+        <v>0.3391420523387483</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.1796053020267767</v>
+        <v>0.5463872715547536</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.17677669529664</v>
+        <v>0.2764835448776499</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.1740776559556994</v>
+        <v>0.2423812462156694</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.1825741858350599</v>
+        <v>0.3981569922085132</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.5286203130734006</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.1714985851425208</v>
+        <v>0.31719894693322</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.3162277660168386</v>
+        <v>0.2120493022113777</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.1690308509457175</v>
+        <v>0.2493460661888052</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.3162277660168383</v>
+        <v>0.5472454574213187</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.1666666666666844</v>
+        <v>0.3738455108602836</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.2000000000000068</v>
+        <v>0.2405857808281502</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.1643989873053838</v>
+        <v>0.2916117409556799</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.3333333333333331</v>
+        <v>0.394918705428043</v>
       </c>
       <c r="II1" t="n">
-        <v>0.1622214211307813</v>
+        <v>0.4405735550761343</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.1601281538051267</v>
+        <v>0.2036718342201521</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.1796053020267686</v>
+        <v>0.2728294241723665</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.301511344577764</v>
+        <v>0.4086552879924518</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.1581138830084612</v>
+        <v>0.3043886707195754</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1561737618886502</v>
+        <v>0.2243115358205797</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.1543033499621514</v>
+        <v>0.3280928199655647</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.1767766952966501</v>
+        <v>0.4951285632729852</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.1524985703326445</v>
+        <v>0.4134039367428956</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1961161351381871</v>
+        <v>0.2392956686295858</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.1507556722889009</v>
+        <v>0.2535979519421834</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.3162277660168384</v>
+        <v>0.5212921990999252</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.1490711985000639</v>
+        <v>0.3594410357827248</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.1474419561548892</v>
+        <v>0.2681794083917563</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.145864991497962</v>
+        <v>0.282473016452736</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.1443375672974623</v>
+        <v>0.4109695155919931</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.1428571428572012</v>
+        <v>0.2441613887008663</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.1414213562373614</v>
+        <v>0.2154818023362791</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.1400280084028538</v>
+        <v>0.3049739076879406</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.1386750490563639</v>
+        <v>0.3153400654598066</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.1373605639486825</v>
+        <v>0.3196845902428618</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.1924500897298797</v>
+        <v>0.2275834141814748</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.1360827634879236</v>
+        <v>0.250773310270262</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.1740776559556898</v>
+        <v>0.277161665755163</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.1348399724926735</v>
+        <v>0.4619305669339971</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.1714985851425234</v>
+        <v>0.2793694165427527</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.1336306209562797</v>
+        <v>0.2263234268665329</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.3015113445777642</v>
+        <v>0.2236204979074459</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.132453235706575</v>
+        <v>0.4990043483770834</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.1313064328598102</v>
+        <v>0.2275536177386674</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.1301889109808134</v>
+        <v>0.2373727748687678</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.2886751345948135</v>
+        <v>0.2033149249988588</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.1290994448736698</v>
+        <v>0.3609929291735133</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.1889822365046156</v>
+        <v>0.2137672952652764</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.1280368799330066</v>
+        <v>0.2275401925511464</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.5</v>
+        <v>0.2007451832431389</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.1270001270001445</v>
+        <v>0.3046024720238554</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.2231035973189141</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.1259881576697889</v>
+        <v>0.2256154361551383</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.1249999999999929</v>
+        <v>0.2127785008078099</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.1856953381770541</v>
+        <v>0.2995660101222836</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.1240347345892378</v>
+        <v>0.2140596280928798</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.1230914909792713</v>
+        <v>0.2520262993777702</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.377964473009227</v>
+        <v>0.2187248144285784</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.2773500981126147</v>
+        <v>0.2955209230423382</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.122169444356384</v>
+        <v>0.2130076767857015</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.1212678125181635</v>
+        <v>0.2751380706551656</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.1690308509457165</v>
+        <v>0.2194574384221491</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.1203858530857252</v>
+        <v>0.2694932378670065</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.1825741858350611</v>
+        <v>0.2353939498351406</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.1195228609334057</v>
+        <v>0.2909544962342568</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.3015113445777637</v>
+        <v>0.2226710231951475</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.1186781658192805</v>
+        <v>0.2606171642879389</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.1178511301977181</v>
+        <v>0.2546853436764824</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.1170411471961924</v>
+        <v>0.3086418139741102</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.1796053020267754</v>
+        <v>0.2211236692622078</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.2672612419124243</v>
+        <v>0.2772487884312584</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.1162476387436917</v>
+        <v>0.2670729754466011</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.1154700538377702</v>
+        <v>0.3220310108609571</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.1666666666666907</v>
+        <v>0.2132967319302147</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.114707866935389</v>
+        <v>0.3048689029656405</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.1767766952966513</v>
+        <v>0.2775906786400928</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.1139605764596687</v>
+        <v>0.3326726343181838</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.2886751345948135</v>
+        <v>0.239723356462851</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.1132277034143456</v>
+        <v>0.3455689361751432</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.1125087900924981</v>
+        <v>0.2830773044745037</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.1118033988748671</v>
+        <v>0.2155479779925579</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.2886751345948135</v>
+        <v>0.2439763868453133</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.1111111111111433</v>
+        <v>0.3825669259712919</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.1104315260749225</v>
+        <v>0.2921560205341226</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.1097642599897861</v>
+        <v>0.2128525859474597</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.1740776559556955</v>
+        <v>0.2466092985865887</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.1091089451178647</v>
+        <v>0.4107111118447546</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.1714985851425306</v>
+        <v>0.3045343068082367</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.1084652289092143</v>
+        <v>0.2045816931170102</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3466402318596919</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.107832773203648</v>
+        <v>0.4215625545989414</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.1072112534835884</v>
+        <v>0.2845408101888144</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.1066003581776474</v>
+        <v>0.1999310945318997</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.169030850945726</v>
+        <v>0.4747270081217805</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.1059997880007147</v>
+        <v>0.3818098266573491</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.1643989873053602</v>
+        <v>0.2747466044587333</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.1054092553388457</v>
+        <v>0.2058093435289075</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.1048284836721164</v>
+        <v>0.2686354553121091</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.1042572070287799</v>
+        <v>0.3650036697232057</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.1036951694729269</v>
+        <v>0.3022907237063998</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.1031421246258</v>
+        <v>0.2217607316764438</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.1025978352086368</v>
+        <v>0.2741308579252028</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.1020620726158644</v>
+        <v>0.2265570673096582</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.1015346165132764</v>
+        <v>0.2265985140825954</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.1010152544554706</v>
+        <v>0.2284583302902615</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.1666666666666934</v>
+        <v>0.323160267191531</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.1005037815258376</v>
+        <v>0.232159930888521</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.1000000000002432</v>
+        <v>0.2263194430886073</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.09950371902125782</v>
+        <v>0.2587186491238582</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.09901475429751364</v>
+        <v>0.2173086711869233</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.09853292781640338</v>
+        <v>0.2543028570832888</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.098058067568862</v>
+        <v>0.1950773641758697</v>
       </c>
       <c r="MC1" t="n">
-        <v>0.09759000729466259</v>
+        <v>0.206498361163565</v>
       </c>
       <c r="MD1" t="n">
-        <v>0.09712858623576012</v>
+        <v>0.1963419496075869</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.09667364890466686</v>
+        <v>0.200677207066177</v>
       </c>
       <c r="MF1" t="n">
-        <v>0.09622504486524129</v>
+        <v>0.2219994240043213</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.09578262852201691</v>
+        <v>0.2450195201088896</v>
       </c>
       <c r="MH1" t="n">
-        <v>0.1643989873053379</v>
+        <v>0.1869479260984423</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.09534625892444018</v>
+        <v>0.1950582634106524</v>
       </c>
       <c r="MJ1" t="n">
-        <v>0.09491579957572957</v>
+        <v>0.2044466474281777</v>
       </c>
       <c r="MK1" t="n">
-        <v>0.1622214211307529</v>
+        <v>0.1952317454403235</v>
       </c>
       <c r="ML1" t="n">
-        <v>0.09449111825200585</v>
+        <v>0.2399317044479615</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.09407208683877877</v>
+        <v>0.1997335093385301</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.09365858115842915</v>
+        <v>0.2973281744830932</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.25819888974716</v>
+        <v>0.1913089315450902</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.2500000000000009</v>
+        <v>0.3698275336269506</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.09325048082379538</v>
+        <v>0.1856212198446716</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.09284766908831288</v>
+        <v>0.3187364824169882</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.09245003270401435</v>
+        <v>0.1768957811987489</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.1601281538051239</v>
+        <v>0.3198991982663941</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.09205746178937634</v>
+        <v>0.1768393990015822</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.1581138830084545</v>
+        <v>0.3584617891809661</v>
       </c>
       <c r="MW1" t="n">
-        <v>0.09166984970260902</v>
+        <v>0.1911612828338417</v>
       </c>
       <c r="MX1" t="n">
-        <v>0.3535533905932741</v>
+        <v>0.3611397230037196</v>
       </c>
       <c r="MY1" t="n">
-        <v>0.09128709291732685</v>
+        <v>0.2008788906048194</v>
       </c>
       <c r="MZ1" t="n">
-        <v>0.09090909090877446</v>
+        <v>0.2682258111005595</v>
       </c>
       <c r="NA1" t="n">
-        <v>0.09053574604294165</v>
+        <v>0.271432937101396</v>
       </c>
       <c r="NB1" t="n">
-        <v>0.09016696346730803</v>
+        <v>0.2766330131357057</v>
       </c>
       <c r="NC1" t="n">
-        <v>0.08980265101327924</v>
+        <v>0.1889841206046708</v>
       </c>
       <c r="ND1" t="n">
-        <v>0.08944271910042607</v>
+        <v>0.3880745800790364</v>
       </c>
       <c r="NE1" t="n">
-        <v>0.08908708063732509</v>
+        <v>0.4053615757810549</v>
       </c>
       <c r="NF1" t="n">
-        <v>0.2425356250363344</v>
+        <v>0.1994479929901669</v>
       </c>
       <c r="NG1" t="n">
-        <v>0.08873565094131228</v>
+        <v>0.2460170935471002</v>
       </c>
       <c r="NH1" t="n">
-        <v>0.0883883476484453</v>
+        <v>0.5067341843338845</v>
       </c>
       <c r="NI1" t="n">
-        <v>0.08804509063322447</v>
+        <v>0.239043729393612</v>
       </c>
       <c r="NJ1" t="n">
-        <v>0.1561737618886417</v>
+        <v>0.196134813693056</v>
       </c>
       <c r="NK1" t="n">
-        <v>0.08770580193045213</v>
+        <v>0.2907238970278724</v>
       </c>
       <c r="NL1" t="n">
-        <v>0.08737040566678306</v>
+        <v>0.3166333286861314</v>
       </c>
       <c r="NM1" t="n">
-        <v>0.0870388279777022</v>
+        <v>0.1721334786191827</v>
       </c>
       <c r="NN1" t="n">
-        <v>0.154303349962138</v>
+        <v>0.2161897739439585</v>
       </c>
       <c r="NO1" t="n">
-        <v>0.08671099695280667</v>
+        <v>0.3255628089366024</v>
       </c>
       <c r="NP1" t="n">
-        <v>0.1524985703326241</v>
+        <v>0.2212527994563902</v>
       </c>
       <c r="NQ1" t="n">
-        <v>0.08638684255904283</v>
+        <v>0.162894847697695</v>
       </c>
       <c r="NR1" t="n">
-        <v>0.08606629658302692</v>
+        <v>0.222943166541284</v>
       </c>
       <c r="NS1" t="n">
-        <v>0.08574929257074868</v>
+        <v>0.3366859163919489</v>
       </c>
       <c r="NT1" t="n">
-        <v>0.1507556722888766</v>
+        <v>0.2089080513426601</v>
       </c>
       <c r="NU1" t="n">
-        <v>0.08543576577150126</v>
+        <v>0.175025495494489</v>
       </c>
       <c r="NV1" t="n">
-        <v>0.08512565307644955</v>
+        <v>0.2291514065545387</v>
       </c>
       <c r="NW1" t="n">
-        <v>0.08481889296762443</v>
+        <v>0.3477594270153768</v>
       </c>
       <c r="NX1" t="n">
-        <v>0.08451542547253559</v>
+        <v>0.2345005345255072</v>
       </c>
       <c r="NY1" t="n">
-        <v>0.08421519210714698</v>
+        <v>0.1803674049919766</v>
       </c>
       <c r="NZ1" t="n">
-        <v>0.08391813582951076</v>
+        <v>0.2450526838384053</v>
       </c>
       <c r="OA1" t="n">
-        <v>0.08362420100054303</v>
+        <v>0.3630393176085919</v>
       </c>
       <c r="OB1" t="n">
-        <v>0.08333333333292618</v>
+        <v>0.2511936003972162</v>
       </c>
       <c r="OC1" t="n">
-        <v>0.08304547985437975</v>
+        <v>0.1810999686180158</v>
       </c>
       <c r="OD1" t="n">
-        <v>0.149071198500036</v>
+        <v>0.2556823118234119</v>
       </c>
       <c r="OE1" t="n">
-        <v>0.08276058886086478</v>
+        <v>0.3705715990275469</v>
       </c>
       <c r="OF1" t="n">
-        <v>0.08247860988475457</v>
+        <v>0.2543220451209591</v>
       </c>
       <c r="OG1" t="n">
-        <v>0.08219949365356424</v>
+        <v>0.184672221669631</v>
       </c>
       <c r="OH1" t="n">
-        <v>0.08192319205176915</v>
+        <v>0.2614395917313326</v>
       </c>
       <c r="OI1" t="n">
-        <v>0.08164965809368797</v>
+        <v>0.3745139570598043</v>
       </c>
       <c r="OJ1" t="n">
-        <v>0.1474419561548922</v>
+        <v>0.2634236850449881</v>
       </c>
       <c r="OK1" t="n">
-        <v>0.1458649914979521</v>
+        <v>0.191081829320362</v>
       </c>
       <c r="OL1" t="n">
-        <v>0.081378845877859</v>
+        <v>0.2640166966300148</v>
       </c>
       <c r="OM1" t="n">
-        <v>0.08111071056493414</v>
+        <v>0.3775004557227156</v>
       </c>
       <c r="ON1" t="n">
-        <v>0.08084520834500404</v>
+        <v>0.2748012107916317</v>
       </c>
       <c r="OO1" t="n">
-        <v>0.08058229640233723</v>
+        <v>0.2026000489964214</v>
       </c>
       <c r="OP1" t="n">
-        <v>0.14433756729745</v>
+        <v>0.2703305927801321</v>
       </c>
       <c r="OQ1" t="n">
-        <v>0.08032193289095907</v>
+        <v>0.3844630384083685</v>
       </c>
       <c r="OR1" t="n">
-        <v>0.08006407690202065</v>
+        <v>0.2823567317596287</v>
       </c>
       <c r="OS1" t="n">
-        <v>0.07980868844677681</v>
+        <v>0.2078110382121739</v>
       </c>
       <c r="OT1" t="n">
-        <v>0.07955572841837913</v>
+        <v>0.2751797116875843</v>
       </c>
       <c r="OU1" t="n">
-        <v>0.0793051585718319</v>
+        <v>0.3813770318521401</v>
       </c>
       <c r="OV1" t="n">
-        <v>0.1428571428572001</v>
+        <v>0.2833531829184538</v>
       </c>
       <c r="OW1" t="n">
-        <v>0.07905694150367218</v>
+        <v>0.2070964046431896</v>
       </c>
       <c r="OX1" t="n">
-        <v>0.141421356237363</v>
+        <v>0.2705093407692505</v>
       </c>
       <c r="OY1" t="n">
-        <v>0.07881104062465605</v>
+        <v>0.2537061327339572</v>
       </c>
       <c r="OZ1" t="n">
-        <v>0.07856742013267393</v>
+        <v>0.2842522256718043</v>
       </c>
       <c r="PA1" t="n">
-        <v>0.07832604499818673</v>
+        <v>0.2046755828517325</v>
       </c>
       <c r="PB1" t="n">
-        <v>0.07808688094485329</v>
+        <v>0.2639759299345021</v>
       </c>
       <c r="PC1" t="n">
-        <v>0.07784989441716295</v>
+        <v>0.2528304726113982</v>
       </c>
       <c r="PD1" t="n">
-        <v>0.2357022603955187</v>
+        <v>0.2862603187818603</v>
       </c>
       <c r="PE1" t="n">
-        <v>0.07761505256997363</v>
+        <v>0.1979727528453077</v>
       </c>
       <c r="PF1" t="n">
-        <v>0.07738232325455531</v>
+        <v>0.2531378958876812</v>
       </c>
       <c r="PG1" t="n">
-        <v>0.07715167498047165</v>
+        <v>0.376873381511501</v>
       </c>
       <c r="PH1" t="n">
-        <v>0.1400280084028285</v>
+        <v>0.2230721398588263</v>
       </c>
       <c r="PI1" t="n">
-        <v>0.07692307692400732</v>
+        <v>0.1995494974783214</v>
       </c>
       <c r="PJ1" t="n">
-        <v>0.2773500981126147</v>
+        <v>0.1970637205849851</v>
       </c>
       <c r="PK1" t="n">
-        <v>0.07669649888421434</v>
+        <v>0.2300200595660785</v>
       </c>
       <c r="PL1" t="n">
-        <v>0.2294157338705645</v>
+        <v>0.2208173244758913</v>
       </c>
       <c r="PM1" t="n">
-        <v>0.07647191129014987</v>
+        <v>0.1830959710044375</v>
       </c>
       <c r="PN1" t="n">
-        <v>0.162221421130757</v>
+        <v>0.1842923032301814</v>
       </c>
       <c r="PO1" t="n">
-        <v>0.07624928516713816</v>
+        <v>0.2334490460536928</v>
       </c>
       <c r="PP1" t="n">
-        <v>0.07602859212813035</v>
+        <v>0.34703780521442</v>
       </c>
       <c r="PQ1" t="n">
-        <v>0.07580980435913839</v>
+        <v>0.1847244838238463</v>
       </c>
       <c r="PR1" t="n">
-        <v>0.2672612419124256</v>
+        <v>0.1927463608321085</v>
       </c>
       <c r="PS1" t="n">
-        <v>0.07559289460110788</v>
+        <v>0.2431422314256821</v>
       </c>
       <c r="PT1" t="n">
-        <v>0.1386750490563262</v>
+        <v>0.2080028368464339</v>
       </c>
       <c r="PU1" t="n">
-        <v>0.07537783614584047</v>
+        <v>0.1767234456698603</v>
       </c>
       <c r="PV1" t="n">
-        <v>0.2581988897471609</v>
+        <v>0.2234555654789148</v>
       </c>
       <c r="PW1" t="n">
-        <v>0.07516460279953441</v>
+        <v>0.1953787326197569</v>
       </c>
       <c r="PX1" t="n">
-        <v>0.1373605639487092</v>
+        <v>0.1839655752535549</v>
       </c>
       <c r="PY1" t="n">
-        <v>0.07495316890057273</v>
+        <v>0.1762746052662099</v>
       </c>
       <c r="PZ1" t="n">
-        <v>0.1601281538051194</v>
+        <v>0.2600846749025365</v>
       </c>
       <c r="QA1" t="n">
-        <v>0.07474350927662879</v>
+        <v>0.2311220774300822</v>
       </c>
       <c r="QB1" t="n">
-        <v>0.2236067977499805</v>
+        <v>0.1997804250552731</v>
       </c>
       <c r="QC1" t="n">
-        <v>0.07453559924934938</v>
+        <v>0.1946034855702024</v>
       </c>
       <c r="QD1" t="n">
-        <v>0.2499999999999984</v>
+        <v>0.1893546605525495</v>
       </c>
       <c r="QE1" t="n">
-        <v>0.07432941462417882</v>
+        <v>0.1843666266319768</v>
       </c>
       <c r="QF1" t="n">
-        <v>0.07412493166542476</v>
+        <v>0.1791708101154106</v>
       </c>
       <c r="QG1" t="n">
-        <v>0.07392212709627735</v>
+        <v>0.1946781428265511</v>
       </c>
       <c r="QH1" t="n">
-        <v>0.2425356250363337</v>
+        <v>0.1800956345954983</v>
       </c>
       <c r="QI1" t="n">
-        <v>0.07372097807880788</v>
+        <v>0.200940331629229</v>
       </c>
       <c r="QJ1" t="n">
-        <v>0.1360827634879269</v>
+        <v>0.1694072044112334</v>
       </c>
       <c r="QK1" t="n">
-        <v>0.07352146220962956</v>
+        <v>0.1852562475492756</v>
       </c>
       <c r="QL1" t="n">
-        <v>0.07332355751059333</v>
+        <v>0.1765500348489341</v>
       </c>
       <c r="QM1" t="n">
-        <v>0.07312724241412287</v>
+        <v>0.2079605019684347</v>
       </c>
       <c r="QN1" t="n">
-        <v>0.07293249575039291</v>
+        <v>0.209951599178754</v>
       </c>
       <c r="QO1" t="n">
-        <v>0.07273929674592719</v>
+        <v>0.1661285809307968</v>
       </c>
       <c r="QP1" t="n">
-        <v>0.1581138830084499</v>
+        <v>0.2268294839174773</v>
       </c>
       <c r="QQ1" t="n">
-        <v>0.07254762501231737</v>
+        <v>0.1959492195747309</v>
       </c>
       <c r="QR1" t="n">
-        <v>0.1348399724926941</v>
+        <v>0.1651258158580631</v>
       </c>
       <c r="QS1" t="n">
-        <v>0.07235746052817237</v>
+        <v>0.1729152093993879</v>
       </c>
       <c r="QT1" t="n">
-        <v>0.07216878365023338</v>
+        <v>0.2359541807323565</v>
       </c>
       <c r="QU1" t="n">
-        <v>0.07198157507629319</v>
+        <v>0.2910497058109922</v>
       </c>
       <c r="QV1" t="n">
-        <v>0.07179581586102833</v>
+        <v>0.1702936913043905</v>
       </c>
       <c r="QW1" t="n">
-        <v>0.07161148740316024</v>
+        <v>0.1592620626245374</v>
       </c>
       <c r="QX1" t="n">
-        <v>0.07142857142727634</v>
+        <v>0.24027473569975</v>
       </c>
       <c r="QY1" t="n">
-        <v>0.07124704998916494</v>
+        <v>0.1887273004701916</v>
       </c>
       <c r="QZ1" t="n">
-        <v>0.0710669054531592</v>
+        <v>0.1572521940840888</v>
       </c>
       <c r="RA1" t="n">
-        <v>0.07088812050237799</v>
+        <v>0.1663166653839741</v>
       </c>
       <c r="RB1" t="n">
-        <v>0.07071067811948693</v>
+        <v>0.2445772162813742</v>
       </c>
       <c r="RC1" t="n">
-        <v>0.07053456158460124</v>
+        <v>0.2769775442253228</v>
       </c>
       <c r="RD1" t="n">
-        <v>0.07035975447388919</v>
+        <v>0.1824389927513062</v>
       </c>
       <c r="RE1" t="n">
-        <v>0.07018624063390404</v>
+        <v>0.1536128287041451</v>
       </c>
       <c r="RF1" t="n">
-        <v>0.07001400420038074</v>
+        <v>0.3314692183741621</v>
       </c>
       <c r="RG1" t="n">
-        <v>0.06984302957778683</v>
+        <v>0.2089542105193076</v>
       </c>
       <c r="RH1" t="n">
-        <v>0.1336306209562144</v>
+        <v>0.1879988755279373</v>
       </c>
       <c r="RI1" t="n">
-        <v>0.06967330142918007</v>
+        <v>0.1631700331862555</v>
       </c>
       <c r="RJ1" t="n">
-        <v>0.0695048046874536</v>
+        <v>0.2125978579756556</v>
       </c>
       <c r="RK1" t="n">
-        <v>0.06933752452709993</v>
+        <v>0.1668355673280214</v>
       </c>
       <c r="RL1" t="n">
-        <v>0.1324532357064761</v>
+        <v>0.1840248779618272</v>
       </c>
       <c r="RM1" t="n">
-        <v>0.06917144638843417</v>
+        <v>0.1815810473910942</v>
       </c>
       <c r="RN1" t="n">
-        <v>0.06900655593313805</v>
+        <v>0.3100502012784925</v>
       </c>
       <c r="RO1" t="n">
-        <v>0.06884283908424021</v>
+        <v>0.202627113154513</v>
       </c>
       <c r="RP1" t="n">
-        <v>0.2182178902359976</v>
+        <v>0.2575718982661337</v>
       </c>
       <c r="RQ1" t="n">
-        <v>0.06868028197525258</v>
+        <v>0.1756413169498137</v>
       </c>
       <c r="RR1" t="n">
-        <v>0.1561737618886385</v>
+        <v>0.3787912839181775</v>
       </c>
       <c r="RS1" t="n">
-        <v>0.0685188709813853</v>
+        <v>0.2604418068173452</v>
       </c>
       <c r="RT1" t="n">
-        <v>0.1313064328597924</v>
+        <v>0.2647175982021284</v>
       </c>
       <c r="RU1" t="n">
-        <v>0.06835859270265919</v>
+        <v>0.2431297064463387</v>
       </c>
       <c r="RV1" t="n">
-        <v>0.06819943394598096</v>
+        <v>0.4673216858996003</v>
       </c>
       <c r="RW1" t="n">
-        <v>0.06804138174589537</v>
+        <v>0.1951854372008856</v>
       </c>
       <c r="RX1" t="n">
-        <v>0.06788442332886939</v>
+        <v>0.3251248808210137</v>
       </c>
       <c r="RY1" t="n">
-        <v>0.06772854614649888</v>
+        <v>0.2371258522204428</v>
       </c>
       <c r="RZ1" t="n">
-        <v>0.06757373784077625</v>
+        <v>0.3452013183725049</v>
       </c>
       <c r="SA1" t="n">
-        <v>0.06741998624486502</v>
+        <v>0.1590337755655756</v>
       </c>
       <c r="SB1" t="n">
-        <v>0.06726727939858143</v>
+        <v>0.2637353347201267</v>
       </c>
       <c r="SC1" t="n">
-        <v>0.06711560551983391</v>
+        <v>0.228954095116356</v>
       </c>
       <c r="SD1" t="n">
-        <v>0.1543033499621244</v>
+        <v>0.36117545970328</v>
       </c>
       <c r="SE1" t="n">
-        <v>0.06696495302024205</v>
+        <v>0.1904268100272051</v>
       </c>
       <c r="SF1" t="n">
-        <v>0.06681531047689299</v>
+        <v>0.3156816615706022</v>
       </c>
       <c r="SG1" t="n">
-        <v>0.06666666666875022</v>
+        <v>0.2214877087094999</v>
       </c>
       <c r="SH1" t="n">
-        <v>0.06651901052516929</v>
+        <v>0.3125306967905463</v>
       </c>
       <c r="SI1" t="n">
-        <v>0.06637233116188847</v>
+        <v>0.1666842973717597</v>
       </c>
       <c r="SJ1" t="n">
-        <v>0.06622661785526314</v>
+        <v>0.2489115867041537</v>
       </c>
       <c r="SK1" t="n">
-        <v>0.06608186004741005</v>
+        <v>0.2912463363555994</v>
       </c>
       <c r="SL1" t="n">
-        <v>0.06593804733767841</v>
+        <v>0.3825640567851565</v>
       </c>
       <c r="SM1" t="n">
-        <v>0.06579516949443351</v>
+        <v>0.2196070633698601</v>
       </c>
       <c r="SN1" t="n">
-        <v>0.06565321642820476</v>
+        <v>0.1752813905747768</v>
       </c>
       <c r="SO1" t="n">
-        <v>0.0655121782059843</v>
+        <v>0.4231208614816496</v>
       </c>
       <c r="SP1" t="n">
-        <v>0.06537204504467965</v>
+        <v>0.2543523580638746</v>
       </c>
       <c r="SQ1" t="n">
-        <v>0.06523280730674411</v>
+        <v>0.1624583871743275</v>
       </c>
       <c r="SR1" t="n">
-        <v>0.06509445548880009</v>
+        <v>0.2000459750418702</v>
       </c>
       <c r="SS1" t="n">
-        <v>0.06495698024488424</v>
+        <v>0.3792741517270603</v>
       </c>
       <c r="ST1" t="n">
-        <v>0.0648203723544216</v>
+        <v>0.3550535766308425</v>
       </c>
       <c r="SU1" t="n">
-        <v>0.06468462273385756</v>
+        <v>0.1478006893226224</v>
       </c>
       <c r="SV1" t="n">
-        <v>0.1301889109807955</v>
+        <v>0.2357409438018574</v>
       </c>
       <c r="SW1" t="n">
-        <v>0.06454972243596631</v>
+        <v>0.3494038172987704</v>
       </c>
       <c r="SX1" t="n">
-        <v>0.06441566263929532</v>
+        <v>0.4327667558177034</v>
       </c>
       <c r="SY1" t="n">
-        <v>0.06428243465240185</v>
+        <v>0.1716717417954794</v>
       </c>
       <c r="SZ1" t="n">
-        <v>0.06415002990920457</v>
+        <v>0.2139147228916377</v>
       </c>
       <c r="TA1" t="n">
-        <v>0.06401843996497524</v>
+        <v>0.3971027702068296</v>
       </c>
       <c r="TB1" t="n">
-        <v>0.06388765650219526</v>
+        <v>0.5075432292713644</v>
       </c>
       <c r="TC1" t="n">
-        <v>0.0637576713047481</v>
+        <v>0.1655861084265403</v>
       </c>
       <c r="TD1" t="n">
-        <v>0.0636284763002922</v>
+        <v>0.212462664403586</v>
       </c>
       <c r="TE1" t="n">
-        <v>0.06350006349970008</v>
+        <v>0.481261998650581</v>
       </c>
       <c r="TF1" t="n">
-        <v>0.06337242505490785</v>
+        <v>0.5761906377482454</v>
       </c>
       <c r="TG1" t="n">
-        <v>0.06324555320423303</v>
+        <v>0.198574702943585</v>
       </c>
       <c r="TH1" t="n">
-        <v>0.1290994448735528</v>
+        <v>0.2066120349035295</v>
       </c>
       <c r="TI1" t="n">
-        <v>0.06311944030932648</v>
+        <v>0.3925287554155003</v>
       </c>
       <c r="TJ1" t="n">
-        <v>0.06299407883370965</v>
+        <v>0.388713017509397</v>
       </c>
       <c r="TK1" t="n">
-        <v>0.06286946134484557</v>
+        <v>0.2230198290060147</v>
       </c>
       <c r="TL1" t="n">
-        <v>0.06274558051280724</v>
+        <v>0.1641570512794926</v>
       </c>
       <c r="TM1" t="n">
-        <v>0.06262242910734828</v>
+        <v>0.3349011170889185</v>
       </c>
       <c r="TN1" t="n">
-        <v>0.06250000000031974</v>
+        <v>0.2888464365440304</v>
       </c>
       <c r="TO1" t="n">
-        <v>0.06237828615397015</v>
+        <v>0.2276736809779813</v>
       </c>
       <c r="TP1" t="n">
-        <v>0.06225728063799558</v>
+        <v>0.1570356081993708</v>
       </c>
       <c r="TQ1" t="n">
-        <v>0.06213697659902289</v>
+        <v>0.3591065805000475</v>
       </c>
       <c r="TR1" t="n">
-        <v>0.06201736729339485</v>
+        <v>0.2515914297540472</v>
       </c>
       <c r="TS1" t="n">
-        <v>0.06189844606137526</v>
+        <v>0.2360968272935435</v>
       </c>
       <c r="TT1" t="n">
-        <v>0.1280368799329875</v>
+        <v>0.1602536692701663</v>
       </c>
       <c r="TU1" t="n">
-        <v>0.06178020631975195</v>
+        <v>0.4418627851178615</v>
       </c>
       <c r="TV1" t="n">
-        <v>0.06166264160037228</v>
+        <v>0.2337936605165872</v>
       </c>
       <c r="TW1" t="n">
-        <v>0.0615457454891865</v>
+        <v>0.2540642532978493</v>
       </c>
       <c r="TX1" t="n">
-        <v>0.1270001270001725</v>
+        <v>0.1640560996394495</v>
       </c>
       <c r="TY1" t="n">
-        <v>0.06142951168351982</v>
+        <v>0.4726195480499077</v>
       </c>
       <c r="TZ1" t="n">
-        <v>0.1259881576697144</v>
+        <v>0.2530123620495472</v>
       </c>
       <c r="UA1" t="n">
-        <v>0.06131393395081634</v>
+        <v>0.275041709813677</v>
       </c>
       <c r="UB1" t="n">
-        <v>0.06119900613801105</v>
+        <v>0.1842605017756104</v>
       </c>
       <c r="UC1" t="n">
-        <v>0.0610847221762584</v>
+        <v>0.4429732815051994</v>
       </c>
       <c r="UD1" t="n">
-        <v>0.06097107608683758</v>
+        <v>0.294735346244735</v>
       </c>
       <c r="UE1" t="n">
-        <v>0.06085806194275411</v>
+        <v>0.3022554582632165</v>
       </c>
       <c r="UF1" t="n">
-        <v>0.1250000000000417</v>
+        <v>0.2108079655703114</v>
       </c>
       <c r="UG1" t="n">
-        <v>0.06074567392081108</v>
+        <v>0.3798469183211896</v>
       </c>
       <c r="UH1" t="n">
-        <v>0.06063390625743521</v>
+        <v>0.306642143666623</v>
       </c>
       <c r="UI1" t="n">
-        <v>0.06052275326524478</v>
+        <v>0.3254216807317232</v>
       </c>
       <c r="UJ1" t="n">
-        <v>0.06041220933611656</v>
+        <v>0.2248990058077299</v>
       </c>
       <c r="UK1" t="n">
-        <v>0.06030226891762047</v>
+        <v>0.3091127808295546</v>
       </c>
       <c r="UL1" t="n">
-        <v>0.06019292654420443</v>
+        <v>0.2920101839763857</v>
       </c>
       <c r="UM1" t="n">
-        <v>0.06008417681594017</v>
+        <v>0.3381917057201597</v>
       </c>
       <c r="UN1" t="n">
-        <v>0.05997601438879791</v>
+        <v>0.2322963373937716</v>
       </c>
       <c r="UO1" t="n">
-        <v>0.05986843401189421</v>
+        <v>0.3323825521345958</v>
       </c>
       <c r="UP1" t="n">
-        <v>0.1240347345891791</v>
+        <v>0.273482822017098</v>
       </c>
       <c r="UQ1" t="n">
-        <v>0.05976143046480144</v>
+        <v>0.334130915804064</v>
       </c>
       <c r="UR1" t="n">
-        <v>0.05965499862519792</v>
+        <v>0.2360169540106874</v>
       </c>
       <c r="US1" t="n">
-        <v>0.05954913341474623</v>
+        <v>0.4500477565559904</v>
       </c>
       <c r="UT1" t="n">
-        <v>0.05944382983012056</v>
+        <v>0.2687180083567698</v>
       </c>
       <c r="UU1" t="n">
-        <v>0.05933908290847368</v>
+        <v>0.3116522505938752</v>
       </c>
       <c r="UV1" t="n">
-        <v>0.0592348877780966</v>
+        <v>0.2365288832305351</v>
       </c>
       <c r="UW1" t="n">
-        <v>0.05913123960196815</v>
+        <v>0.5251448915092485</v>
       </c>
       <c r="UX1" t="n">
-        <v>0.05902813360764361</v>
+        <v>0.303064944187933</v>
       </c>
       <c r="UY1" t="n">
-        <v>0.05892556509678561</v>
+        <v>0.2670310065867247</v>
       </c>
       <c r="UZ1" t="n">
-        <v>0.05882352941517659</v>
+        <v>0.2394252751515029</v>
       </c>
       <c r="VA1" t="n">
-        <v>0.05872202195314551</v>
+        <v>0.4754829120678451</v>
       </c>
       <c r="VB1" t="n">
-        <v>0.05862103817369502</v>
+        <v>0.3395350852640893</v>
       </c>
       <c r="VC1" t="n">
-        <v>0.05852057359956984</v>
+        <v>0.3024660585379074</v>
       </c>
       <c r="VD1" t="n">
-        <v>0.05842062378709124</v>
+        <v>0.2264013646977188</v>
       </c>
       <c r="VE1" t="n">
-        <v>0.05832118435311408</v>
+        <v>0.3449744395005543</v>
       </c>
       <c r="VF1" t="n">
-        <v>0.05822225097164566</v>
+        <v>0.3453114355155961</v>
       </c>
       <c r="VG1" t="n">
-        <v>0.05812381937357734</v>
+        <v>0.3699630474277155</v>
       </c>
       <c r="VH1" t="n">
-        <v>0.0580258853165817</v>
+        <v>0.2049609078595008</v>
       </c>
       <c r="VI1" t="n">
-        <v>0.05792844463986172</v>
+        <v>0.3592662863216036</v>
       </c>
       <c r="VJ1" t="n">
-        <v>0.1524985703326405</v>
+        <v>0.3667763257579515</v>
       </c>
       <c r="VK1" t="n">
-        <v>0.05783149319567085</v>
+        <v>0.21480631709644</v>
       </c>
       <c r="VL1" t="n">
-        <v>0.05773502691519039</v>
+        <v>0.2111177023587872</v>
       </c>
       <c r="VM1" t="n">
-        <v>0.057639041772033</v>
+        <v>0.2845600049896683</v>
       </c>
       <c r="VN1" t="n">
-        <v>0.2357022603955161</v>
+        <v>0.4113578856577259</v>
       </c>
       <c r="VO1" t="n">
-        <v>0.05754353376587595</v>
+        <v>0.286842393524731</v>
       </c>
       <c r="VP1" t="n">
-        <v>0.05744849896539062</v>
+        <v>0.2551414965081057</v>
       </c>
       <c r="VQ1" t="n">
-        <v>0.0573539334658807</v>
+        <v>0.296187195959966</v>
       </c>
       <c r="VR1" t="n">
-        <v>0.5773502691896258</v>
+        <v>0.2553715916238483</v>
       </c>
       <c r="VS1" t="n">
-        <v>0.05725983342705686</v>
+        <v>0.1815244500900984</v>
       </c>
       <c r="VT1" t="n">
-        <v>0.05716619504491208</v>
+        <v>0.181084619587619</v>
       </c>
       <c r="VU1" t="n">
-        <v>0.05707301455407186</v>
+        <v>0.1917847055475774</v>
       </c>
       <c r="VV1" t="n">
-        <v>0.05698028823289775</v>
+        <v>0.2781184853436353</v>
       </c>
       <c r="VW1" t="n">
-        <v>0.05688801239456749</v>
+        <v>0.2239173562747978</v>
       </c>
       <c r="VX1" t="n">
-        <v>0.05679618342123247</v>
+        <v>0.1715657207361909</v>
       </c>
       <c r="VY1" t="n">
-        <v>0.05670479770881649</v>
+        <v>0.1974229004970102</v>
       </c>
       <c r="VZ1" t="n">
-        <v>0.1507556722888549</v>
+        <v>0.3362168711175156</v>
       </c>
       <c r="WA1" t="n">
-        <v>0.0566138517045862</v>
+        <v>0.1785398402717233</v>
       </c>
       <c r="WB1" t="n">
-        <v>0.05652334189792269</v>
+        <v>0.1595262412692245</v>
       </c>
       <c r="WC1" t="n">
-        <v>0.05643326479820674</v>
+        <v>0.2393173010893033</v>
       </c>
       <c r="WD1" t="n">
-        <v>0.0563436169790744</v>
+        <v>0.1872967520608028</v>
       </c>
       <c r="WE1" t="n">
-        <v>0.05625439504781211</v>
+        <v>0.2168960871892317</v>
       </c>
       <c r="WF1" t="n">
-        <v>0.1490711985000192</v>
+        <v>0.1679806362821366</v>
       </c>
       <c r="WG1" t="n">
-        <v>0.05616559562815071</v>
+        <v>0.1730771468800851</v>
       </c>
       <c r="WH1" t="n">
-        <v>0.2294157338705631</v>
+        <v>0.2302785215211868</v>
       </c>
       <c r="WI1" t="n">
-        <v>0.05607721540905791</v>
+        <v>0.173965306514527</v>
       </c>
       <c r="WJ1" t="n">
-        <v>0.05598925109740788</v>
+        <v>0.1548759582398051</v>
       </c>
       <c r="WK1" t="n">
-        <v>0.05590169944099055</v>
+        <v>0.2243662448641896</v>
       </c>
       <c r="WL1" t="n">
-        <v>0.05581455721887423</v>
+        <v>0.1678276595979608</v>
       </c>
       <c r="WM1" t="n">
-        <v>0.05572782125340595</v>
+        <v>0.2039098016299971</v>
       </c>
       <c r="WN1" t="n">
-        <v>0.05564148841171208</v>
+        <v>0.1747527517548528</v>
       </c>
       <c r="WO1" t="n">
-        <v>0.05555555555754609</v>
+        <v>0.3251485287078416</v>
       </c>
       <c r="WP1" t="n">
-        <v>0.1474419561548741</v>
+        <v>0.177754452297655</v>
       </c>
       <c r="WQ1" t="n">
-        <v>0.0554700196253411</v>
+        <v>0.2509671166208388</v>
       </c>
       <c r="WR1" t="n">
-        <v>0.1458649914979339</v>
+        <v>0.2815709384718137</v>
       </c>
       <c r="WS1" t="n">
-        <v>0.05538487756012532</v>
+        <v>0.4183253052107221</v>
       </c>
       <c r="WT1" t="n">
-        <v>0.05530012636289975</v>
+        <v>0.163725823051516</v>
       </c>
       <c r="WU1" t="n">
-        <v>0.05521576303867295</v>
+        <v>0.3188905158453629</v>
       </c>
       <c r="WV1" t="n">
-        <v>0.2236067977499835</v>
+        <v>0.1692868213140776</v>
       </c>
       <c r="WW1" t="n">
-        <v>0.1230914909793092</v>
+        <v>0.4919907888948128</v>
       </c>
       <c r="WX1" t="n">
-        <v>0.05513178463846675</v>
+        <v>0.1889526341816292</v>
       </c>
       <c r="WY1" t="n">
-        <v>0.05504818825843687</v>
+        <v>0.4331643732988331</v>
       </c>
       <c r="WZ1" t="n">
-        <v>0.05496497098963158</v>
+        <v>0.1728073969959848</v>
       </c>
       <c r="XA1" t="n">
-        <v>0.2132007163556127</v>
+        <v>0.3405632167216399</v>
       </c>
       <c r="XB1" t="n">
-        <v>0.05488212999990585</v>
+        <v>0.283612573977549</v>
       </c>
       <c r="XC1" t="n">
-        <v>0.05479966243873281</v>
+        <v>0.2886774860832241</v>
       </c>
       <c r="XD1" t="n">
-        <v>0.1443375672974412</v>
+        <v>0.1716665692084366</v>
       </c>
       <c r="XE1" t="n">
-        <v>0.2085144140570768</v>
+        <v>0.4259346938186317</v>
       </c>
       <c r="XF1" t="n">
-        <v>0.05471756551205403</v>
+        <v>0.2041385251418669</v>
       </c>
       <c r="XG1" t="n">
-        <v>0.05463583647481465</v>
+        <v>0.39006352485381</v>
       </c>
       <c r="XH1" t="n">
-        <v>0.142857142857181</v>
+        <v>0.1688226133570834</v>
       </c>
       <c r="XI1" t="n">
-        <v>0.05455447255527077</v>
+        <v>0.5164004862599672</v>
       </c>
       <c r="XJ1" t="n">
-        <v>0.05447347106686942</v>
+        <v>0.176640248092613</v>
       </c>
       <c r="XK1" t="n">
-        <v>0.05439282932366597</v>
+        <v>0.5118043956733205</v>
       </c>
       <c r="XL1" t="n">
-        <v>0.05431254466319509</v>
+        <v>0.2238325990506402</v>
       </c>
       <c r="XM1" t="n">
-        <v>0.05423261445073752</v>
+        <v>0.3612947329472235</v>
       </c>
       <c r="XN1" t="n">
-        <v>0.05415303610600333</v>
+        <v>0.1800749976570885</v>
       </c>
       <c r="XO1" t="n">
-        <v>0.05407380703898201</v>
+        <v>0.3331289529457593</v>
       </c>
       <c r="XP1" t="n">
-        <v>0.2182178902359945</v>
+        <v>0.1642099137665253</v>
       </c>
       <c r="XQ1" t="n">
-        <v>0.2041241452319317</v>
+        <v>0.3098767022771007</v>
       </c>
       <c r="XR1" t="n">
-        <v>0.1221694443563676</v>
+        <v>0.2023103957835313</v>
       </c>
       <c r="XS1" t="n">
-        <v>0.05399492471274365</v>
+        <v>0.2584952118253238</v>
       </c>
       <c r="XT1" t="n">
-        <v>0.1414213562373461</v>
+        <v>0.1633314637057209</v>
       </c>
       <c r="XU1" t="n">
-        <v>0.2000000000000051</v>
+        <v>0.2567814788055309</v>
       </c>
       <c r="XV1" t="n">
-        <v>0.05391638660369914</v>
+        <v>0.2166482093617811</v>
       </c>
       <c r="XW1" t="n">
-        <v>0.05383819020239907</v>
+        <v>0.2793644608028584</v>
       </c>
       <c r="XX1" t="n">
-        <v>0.05376033306000765</v>
+        <v>0.1835001127141593</v>
       </c>
       <c r="XY1" t="n">
-        <v>0.1212678125181246</v>
+        <v>0.1942390944257401</v>
       </c>
       <c r="XZ1" t="n">
-        <v>0.05368281271338009</v>
+        <v>0.2203904115253712</v>
       </c>
       <c r="YA1" t="n">
-        <v>0.05360562674396313</v>
+        <v>0.340751928234965</v>
       </c>
       <c r="YB1" t="n">
-        <v>0.05352877275477044</v>
+        <v>0.1920289171107694</v>
       </c>
       <c r="YC1" t="n">
-        <v>0.1961161351381871</v>
+        <v>0.1711572624247312</v>
       </c>
       <c r="YD1" t="n">
-        <v>0.1203858530857363</v>
+        <v>0.2223687276835764</v>
       </c>
       <c r="YE1" t="n">
-        <v>0.05345224838710972</v>
+        <v>0.3838827131935991</v>
       </c>
       <c r="YF1" t="n">
-        <v>0.1400280084028451</v>
+        <v>0.1949537500301602</v>
       </c>
       <c r="YG1" t="n">
-        <v>0.1195228609334025</v>
+        <v>0.174023049237339</v>
       </c>
       <c r="YH1" t="n">
-        <v>0.192450089729882</v>
+        <v>0.219643945300986</v>
       </c>
       <c r="YI1" t="n">
-        <v>0.05337605126453265</v>
+        <v>0.3989259393418599</v>
       </c>
       <c r="YJ1" t="n">
-        <v>0.2132007163556093</v>
+        <v>0.2044551003871053</v>
       </c>
       <c r="YK1" t="n">
-        <v>0.1186781658193862</v>
+        <v>0.193876618336105</v>
       </c>
       <c r="YL1" t="n">
-        <v>0.05330017908468433</v>
+        <v>0.214133997457071</v>
       </c>
       <c r="YM1" t="n">
-        <v>0.0532246295453259</v>
+        <v>0.4019142625687113</v>
       </c>
       <c r="YN1" t="n">
-        <v>0.2085144140570726</v>
+        <v>0.2103811257871739</v>
       </c>
       <c r="YO1" t="n">
-        <v>0.1889822365046162</v>
+        <v>0.2064070966811023</v>
       </c>
       <c r="YP1" t="n">
-        <v>0.05314940034914643</v>
+        <v>0.2021174560671663</v>
       </c>
       <c r="YQ1" t="n">
-        <v>0.0530744892416097</v>
+        <v>0.4051473349917272</v>
       </c>
       <c r="YR1" t="n">
-        <v>0.1386750490563591</v>
+        <v>0.2138892356768058</v>
       </c>
       <c r="YS1" t="n">
-        <v>0.1178511301977172</v>
+        <v>0.2103525226927369</v>
       </c>
       <c r="YT1" t="n">
-        <v>0.05299989399608612</v>
+        <v>0.1795500740882439</v>
       </c>
       <c r="YU1" t="n">
-        <v>0.05292561239943987</v>
+        <v>0.4090292524122962</v>
       </c>
       <c r="YV1" t="n">
-        <v>0.05285164226080134</v>
+        <v>0.2154064676147193</v>
       </c>
       <c r="YW1" t="n">
-        <v>0.05277798139200424</v>
+        <v>0.2124038484652727</v>
       </c>
       <c r="YX1" t="n">
-        <v>0.2041241452319279</v>
+        <v>0.1613702302234238</v>
       </c>
       <c r="YY1" t="n">
-        <v>0.05270462766649852</v>
+        <v>0.4104844914996436</v>
       </c>
       <c r="YZ1" t="n">
-        <v>0.05263157894440126</v>
+        <v>0.2142812607804032</v>
       </c>
       <c r="ZA1" t="n">
-        <v>0.05255883312690116</v>
+        <v>0.2107985123153085</v>
       </c>
       <c r="ZB1" t="n">
-        <v>0.1373605639486737</v>
+        <v>0.1591078724286585</v>
       </c>
       <c r="ZC1" t="n">
-        <v>0.05248638811161603</v>
+        <v>0.4120659793549868</v>
       </c>
       <c r="ZD1" t="n">
-        <v>0.05241424183293763</v>
+        <v>0.1933220958558886</v>
       </c>
       <c r="ZE1" t="n">
-        <v>0.05234239225563708</v>
+        <v>0.2069218706983827</v>
       </c>
       <c r="ZF1" t="n">
-        <v>0.05227083735064894</v>
+        <v>0.1495628747049431</v>
       </c>
       <c r="ZG1" t="n">
-        <v>0.05219957510294272</v>
+        <v>0.4105994826467241</v>
       </c>
       <c r="ZH1" t="n">
-        <v>0.05212860350992779</v>
+        <v>0.1824055646331905</v>
       </c>
       <c r="ZI1" t="n">
-        <v>0.05205792063070314</v>
+        <v>0.1965509778819068</v>
       </c>
       <c r="ZJ1" t="n">
-        <v>0.05198752448734303</v>
+        <v>0.1591633701745094</v>
       </c>
       <c r="ZK1" t="n">
-        <v>0.05191741316964296</v>
+        <v>0.2396029781290104</v>
       </c>
       <c r="ZL1" t="n">
-        <v>0.05184758473520754</v>
+        <v>0.2468252651801294</v>
       </c>
       <c r="ZM1" t="n">
-        <v>0.0517780373089369</v>
+        <v>0.1838173949181639</v>
       </c>
       <c r="ZN1" t="n">
-        <v>0.05170876900288795</v>
+        <v>0.1558822335896544</v>
       </c>
       <c r="ZO1" t="n">
-        <v>0.05163977795624898</v>
+        <v>0.2369869472272475</v>
       </c>
       <c r="ZP1" t="n">
-        <v>0.05157106230579092</v>
+        <v>0.2459779860580954</v>
       </c>
       <c r="ZQ1" t="n">
-        <v>0.05150262026707945</v>
+        <v>0.1610810006037397</v>
       </c>
       <c r="ZR1" t="n">
-        <v>0.05143444999127979</v>
+        <v>0.1562545295223999</v>
       </c>
       <c r="ZS1" t="n">
-        <v>0.05136654970069627</v>
+        <v>0.2332145036283756</v>
       </c>
       <c r="ZT1" t="n">
-        <v>0.05129891760729419</v>
+        <v>0.1688486358273047</v>
       </c>
       <c r="ZU1" t="n">
-        <v>0.05123155195128612</v>
+        <v>0.1740200331667572</v>
       </c>
       <c r="ZV1" t="n">
-        <v>0.05116445100700779</v>
+        <v>0.1464036432003846</v>
       </c>
       <c r="ZW1" t="n">
-        <v>0.05109761303314106</v>
+        <v>0.1684974274391524</v>
       </c>
       <c r="ZX1" t="n">
-        <v>0.05103103630039408</v>
+        <v>0.2319356493065979</v>
       </c>
       <c r="ZY1" t="n">
-        <v>0.05096471914448798</v>
+        <v>0.1571319173728283</v>
       </c>
       <c r="ZZ1" t="n">
-        <v>0.05089865985933158</v>
+        <v>0.1702241322615109</v>
       </c>
       <c r="AAA1" t="n">
-        <v>0.05083285677082403</v>
+        <v>0.1742040567671007</v>
       </c>
       <c r="AAB1" t="n">
-        <v>0.1360827634879387</v>
+        <v>0.1625805280605737</v>
       </c>
       <c r="AAC1" t="n">
-        <v>0.05076730825292598</v>
+        <v>0.1530631659834447</v>
       </c>
       <c r="AAD1" t="n">
-        <v>0.0507020126590899</v>
+        <v>0.2090241295480689</v>
       </c>
       <c r="AAE1" t="n">
-        <v>0.05063696835053599</v>
+        <v>0.1538802005211724</v>
       </c>
       <c r="AAF1" t="n">
-        <v>0.2000000000000043</v>
+        <v>0.170581177584238</v>
       </c>
       <c r="AAG1" t="n">
-        <v>0.05057217374685125</v>
+        <v>0.1432225799915122</v>
       </c>
       <c r="AAH1" t="n">
-        <v>0.05050762722500001</v>
+        <v>0.2988111762968367</v>
       </c>
       <c r="AAI1" t="n">
-        <v>0.05044332722355345</v>
+        <v>0.1439386999560832</v>
       </c>
       <c r="AAJ1" t="n">
-        <v>0.1348399724926764</v>
+        <v>0.1823338885385407</v>
       </c>
       <c r="AAK1" t="n">
-        <v>0.05037927218076342</v>
+        <v>0.1506631274443564</v>
       </c>
       <c r="AAL1" t="n">
-        <v>0.05031546054434426</v>
+        <v>0.1998280353737995</v>
       </c>
       <c r="AAM1" t="n">
-        <v>0.0502518907544665</v>
+        <v>0.1468988043519422</v>
       </c>
       <c r="AAN1" t="n">
-        <v>0.05018856131563115</v>
+        <v>0.1416793271393816</v>
       </c>
       <c r="AAO1" t="n">
-        <v>0.05012547070685861</v>
+        <v>0.1511141080931066</v>
       </c>
       <c r="AAP1" t="n">
-        <v>0.05006261742964719</v>
+        <v>0.1508945011435296</v>
       </c>
       <c r="AAQ1" t="n">
-        <v>0.04999999999446723</v>
+        <v>0.1891978600429303</v>
       </c>
       <c r="AAR1" t="n">
-        <v>0.04993761693876171</v>
+        <v>0.1497707799096718</v>
       </c>
       <c r="AAS1" t="n">
-        <v>0.04987546681020803</v>
+        <v>0.1906979118973716</v>
       </c>
       <c r="AAT1" t="n">
-        <v>0.04981354814060102</v>
+        <v>0.1859585704147289</v>
       </c>
       <c r="AAU1" t="n">
-        <v>0.04975185951220883</v>
+        <v>0.1414710529866006</v>
       </c>
       <c r="AAV1" t="n">
-        <v>0.04969039949174715</v>
+        <v>0.206545833884836</v>
       </c>
       <c r="AAW1" t="n">
-        <v>0.04962916670518881</v>
+        <v>0.210923326044555</v>
       </c>
       <c r="AAX1" t="n">
-        <v>0.1336306209562664</v>
+        <v>0.161266846930544</v>
       </c>
       <c r="AAY1" t="n">
-        <v>0.04956815970103518</v>
+        <v>0.1360631410425698</v>
       </c>
       <c r="AAZ1" t="n">
-        <v>0.04950737714494619</v>
+        <v>0.1453401299951359</v>
       </c>
       <c r="ABA1" t="n">
-        <v>0.04944681763802462</v>
+        <v>0.1449270550039548</v>
       </c>
       <c r="ABB1" t="n">
-        <v>0.1961161351381862</v>
+        <v>0.1826672802362256</v>
       </c>
       <c r="ABC1" t="n">
-        <v>0.04938647983433637</v>
+        <v>0.16902244531095</v>
       </c>
       <c r="ABD1" t="n">
-        <v>0.04932636236450448</v>
+        <v>0.1809130785782714</v>
       </c>
       <c r="ABE1" t="n">
-        <v>0.04926646390746874</v>
+        <v>0.2029328795334897</v>
       </c>
       <c r="ABF1" t="n">
-        <v>0.04920678313364759</v>
+        <v>0.2007349410437219</v>
       </c>
       <c r="ABG1" t="n">
-        <v>0.04914731872281936</v>
+        <v>0.236708348369543</v>
       </c>
       <c r="ABH1" t="n">
-        <v>0.04908806935820439</v>
+        <v>0.1487326744576115</v>
       </c>
       <c r="ABI1" t="n">
-        <v>0.04902903378043374</v>
+        <v>0.208997939832084</v>
       </c>
       <c r="ABJ1" t="n">
-        <v>0.04897021068560604</v>
+        <v>0.2680079748424757</v>
       </c>
       <c r="ABK1" t="n">
-        <v>0.04891159879854978</v>
+        <v>0.2052958787582468</v>
       </c>
       <c r="ABL1" t="n">
-        <v>0.04885319688079869</v>
+        <v>0.1347313495584103</v>
       </c>
       <c r="ABM1" t="n">
-        <v>0.04879500364331514</v>
+        <v>0.1901321080140865</v>
       </c>
       <c r="ABN1" t="n">
-        <v>0.04873701788689005</v>
+        <v>0.2732519343354969</v>
       </c>
       <c r="ABO1" t="n">
-        <v>0.04867923834369844</v>
+        <v>0.1966893550655267</v>
       </c>
       <c r="ABP1" t="n">
-        <v>0.04862166383555772</v>
+        <v>0.1464038969887671</v>
       </c>
       <c r="ABQ1" t="n">
-        <v>0.0485642931228243</v>
+        <v>0.1722705032219079</v>
       </c>
       <c r="ABR1" t="n">
-        <v>0.1170411471960597</v>
+        <v>0.2556288249700708</v>
       </c>
       <c r="ABS1" t="n">
-        <v>0.04850712499988266</v>
+        <v>0.1603003164185354</v>
       </c>
       <c r="ABT1" t="n">
-        <v>0.04845015832037102</v>
+        <v>0.1844194192664866</v>
       </c>
       <c r="ABU1" t="n">
-        <v>0.04839339185188839</v>
+        <v>0.2262605110953499</v>
       </c>
       <c r="ABV1" t="n">
-        <v>0.04833682445803248</v>
+        <v>0.1882555773579578</v>
       </c>
       <c r="ABW1" t="n">
-        <v>0.0482804549674964</v>
+        <v>0.1814241551196041</v>
       </c>
       <c r="ABX1" t="n">
-        <v>0.04822428222337048</v>
+        <v>0.1632646004223243</v>
       </c>
       <c r="ABY1" t="n">
-        <v>0.04816830507668308</v>
+        <v>0.2313289169960187</v>
       </c>
       <c r="ABZ1" t="n">
-        <v>0.04811252242621371</v>
+        <v>0.2312603894590053</v>
       </c>
       <c r="ACA1" t="n">
-        <v>0.04805693312378945</v>
+        <v>0.1948107528130402</v>
       </c>
       <c r="ACB1" t="n">
-        <v>0.04800153607982803</v>
+        <v>0.1794598997307932</v>
       </c>
       <c r="ACC1" t="n">
-        <v>0.04794633015560244</v>
+        <v>0.1711150728275306</v>
       </c>
       <c r="ACD1" t="n">
-        <v>0.04789131426823172</v>
+        <v>0.2056265270219125</v>
       </c>
       <c r="ACE1" t="n">
-        <v>0.04783648731854117</v>
+        <v>0.233518975987743</v>
       </c>
       <c r="ACF1" t="n">
-        <v>0.04778184825110436</v>
+        <v>0.2893341044491269</v>
       </c>
       <c r="ACG1" t="n">
-        <v>0.04772739598805044</v>
+        <v>0.174889570884306</v>
       </c>
       <c r="ACH1" t="n">
-        <v>0.04767312946865521</v>
+        <v>0.1592933522342808</v>
       </c>
       <c r="ACI1" t="n">
-        <v>0.04761904762948369</v>
+        <v>0.345804930812091</v>
       </c>
       <c r="ACJ1" t="n">
-        <v>0.0475651494104765</v>
+        <v>0.4410212355562925</v>
       </c>
       <c r="ACK1" t="n">
-        <v>0.04751143380391842</v>
+        <v>0.2031259382675375</v>
       </c>
       <c r="ACL1" t="n">
-        <v>0.04745789978559763</v>
+        <v>0.1461235324865746</v>
       </c>
       <c r="ACM1" t="n">
-        <v>0.04740454631340267</v>
+        <v>0.2161242266374255</v>
       </c>
       <c r="ACN1" t="n">
-        <v>0.04735137238582802</v>
+        <v>0.3133901568603493</v>
       </c>
       <c r="ACO1" t="n">
-        <v>0.0472983769930095</v>
+        <v>0.2859236681609333</v>
       </c>
       <c r="ACP1" t="n">
-        <v>0.04724555913203805</v>
+        <v>0.1713643893375277</v>
       </c>
       <c r="ACQ1" t="n">
-        <v>0.04719291780895977</v>
+        <v>0.1800700141675624</v>
       </c>
       <c r="ACR1" t="n">
-        <v>0.04714045208049403</v>
+        <v>0.188775337368112</v>
       </c>
       <c r="ACS1" t="n">
-        <v>0.04708816093326131</v>
+        <v>0.3167664925161174</v>
       </c>
       <c r="ACT1" t="n">
-        <v>0.04703604341272017</v>
+        <v>0.1694361731199268</v>
       </c>
       <c r="ACU1" t="n">
-        <v>0.0469840985777368</v>
+        <v>0.1986405840624333</v>
       </c>
       <c r="ACV1" t="n">
-        <v>0.04693232544742715</v>
+        <v>0.1804910022348508</v>
       </c>
       <c r="ACW1" t="n">
-        <v>0.04688072308907756</v>
+        <v>0.2455700893496746</v>
       </c>
       <c r="ACX1" t="n">
-        <v>0.04682929057209984</v>
+        <v>0.1386043000580998</v>
       </c>
       <c r="ACY1" t="n">
-        <v>0.04677802696282452</v>
+        <v>0.1713213359340007</v>
       </c>
       <c r="ACZ1" t="n">
-        <v>0.04672693134519834</v>
+        <v>0.1827655471183701</v>
       </c>
       <c r="ADA1" t="n">
-        <v>0.04667600280754997</v>
+        <v>0.2959255198639965</v>
       </c>
       <c r="ADB1" t="n">
-        <v>0.04662524040694368</v>
+        <v>0.1445037550242931</v>
       </c>
       <c r="ADC1" t="n">
-        <v>0.04657464327260764</v>
+        <v>0.1680920607282067</v>
       </c>
       <c r="ADD1" t="n">
-        <v>0.04652421051823741</v>
+        <v>0.2859086660107307</v>
       </c>
       <c r="ADE1" t="n">
-        <v>0.04647394123664406</v>
+        <v>0.2329117605048208</v>
       </c>
       <c r="ADF1" t="n">
-        <v>0.1162476387437771</v>
+        <v>0.1471780852654542</v>
       </c>
       <c r="ADG1" t="n">
-        <v>0.04642383455077431</v>
+        <v>0.1652497595671058</v>
       </c>
       <c r="ADH1" t="n">
-        <v>0.0463738895824286</v>
+        <v>0.379672548746985</v>
       </c>
       <c r="ADI1" t="n">
-        <v>0.04632410546712093</v>
+        <v>0.2166273700548745</v>
       </c>
       <c r="ADJ1" t="n">
-        <v>0.04627448133881715</v>
+        <v>0.1593002149960928</v>
       </c>
       <c r="ADK1" t="n">
-        <v>0.04622501634720391</v>
+        <v>0.2437723435275082</v>
       </c>
       <c r="ADL1" t="n">
-        <v>0.04617570965793357</v>
+        <v>0.2634275698042574</v>
       </c>
       <c r="ADM1" t="n">
-        <v>0.04612656039429758</v>
+        <v>0.2083346099546738</v>
       </c>
       <c r="ADN1" t="n">
-        <v>0.04607756775804651</v>
+        <v>0.1693540188695926</v>
       </c>
       <c r="ADO1" t="n">
-        <v>0.04602873089021749</v>
+        <v>0.2612464834097489</v>
       </c>
       <c r="ADP1" t="n">
-        <v>0.04598004898920241</v>
+        <v>0.1695561106103927</v>
       </c>
       <c r="ADQ1" t="n">
-        <v>0.04593152121364803</v>
+        <v>0.154633232235527</v>
       </c>
       <c r="ADR1" t="n">
-        <v>0.04588314677251399</v>
+        <v>0.153861510803365</v>
       </c>
       <c r="ADS1" t="n">
-        <v>0.04583492484682158</v>
+        <v>0.1744826589992591</v>
       </c>
       <c r="ADT1" t="n">
-        <v>0.04578685465958496</v>
+        <v>0.1566788206690063</v>
       </c>
       <c r="ADU1" t="n">
-        <v>0.04573893537332505</v>
+        <v>0.1465828280019875</v>
       </c>
       <c r="ADV1" t="n">
-        <v>0.04569116623757429</v>
+        <v>0.1402889972636645</v>
       </c>
       <c r="ADW1" t="n">
-        <v>0.04564354645452656</v>
+        <v>0.1957232028989249</v>
       </c>
       <c r="ADX1" t="n">
-        <v>0.04559607525563803</v>
+        <v>0.1913345239640427</v>
+      </c>
+      <c r="ADY1" t="n">
+        <v>0.1511439043506447</v>
+      </c>
+      <c r="ADZ1" t="n">
+        <v>0.1475889637052838</v>
+      </c>
+      <c r="AEA1" t="n">
+        <v>0.3279849964081616</v>
+      </c>
+      <c r="AEB1" t="n">
+        <v>0.1688344158049495</v>
+      </c>
+      <c r="AEC1" t="n">
+        <v>0.1351671098212442</v>
+      </c>
+      <c r="AED1" t="n">
+        <v>0.1890714468073178</v>
+      </c>
+      <c r="AEE1" t="n">
+        <v>0.2649428351689094</v>
+      </c>
+      <c r="AEF1" t="n">
+        <v>0.139839721567191</v>
+      </c>
+      <c r="AEG1" t="n">
+        <v>0.13340591060103</v>
+      </c>
+      <c r="AEH1" t="n">
+        <v>0.1425632314376695</v>
+      </c>
+      <c r="AEI1" t="n">
+        <v>0.1616252772502207</v>
+      </c>
+      <c r="AEJ1" t="n">
+        <v>0.1564668828618261</v>
+      </c>
+      <c r="AEK1" t="n">
+        <v>0.1328727996219985</v>
+      </c>
+      <c r="AEL1" t="n">
+        <v>0.1827337787156084</v>
+      </c>
+      <c r="AEM1" t="n">
+        <v>0.1458576370487803</v>
+      </c>
+      <c r="AEN1" t="n">
+        <v>0.1314207378227944</v>
+      </c>
+      <c r="AEO1" t="n">
+        <v>0.1380700357913682</v>
+      </c>
+      <c r="AEP1" t="n">
+        <v>0.1371085586444042</v>
+      </c>
+      <c r="AEQ1" t="n">
+        <v>0.13728154742632</v>
+      </c>
+      <c r="AER1" t="n">
+        <v>0.1307422618203886</v>
+      </c>
+      <c r="AES1" t="n">
+        <v>0.1410772675874139</v>
+      </c>
+      <c r="AET1" t="n">
+        <v>0.1277547153586324</v>
+      </c>
+      <c r="AEU1" t="n">
+        <v>0.1279031297365002</v>
+      </c>
+      <c r="AEV1" t="n">
+        <v>0.1264451891318543</v>
+      </c>
+      <c r="AEW1" t="n">
+        <v>0.1258062390347612</v>
+      </c>
+      <c r="AEX1" t="n">
+        <v>0.1290382412410155</v>
+      </c>
+      <c r="AEY1" t="n">
+        <v>0.1352569773337138</v>
+      </c>
+      <c r="AEZ1" t="n">
+        <v>0.1278798678490177</v>
+      </c>
+      <c r="AFA1" t="n">
+        <v>0.127955024261024</v>
+      </c>
+      <c r="AFB1" t="n">
+        <v>0.1427374371400127</v>
+      </c>
+      <c r="AFC1" t="n">
+        <v>0.1425874951527661</v>
+      </c>
+      <c r="AFD1" t="n">
+        <v>0.1323886056249261</v>
+      </c>
+      <c r="AFE1" t="n">
+        <v>0.1232147343460649</v>
+      </c>
+      <c r="AFF1" t="n">
+        <v>0.1246808783276043</v>
+      </c>
+      <c r="AFG1" t="n">
+        <v>0.2249883056526024</v>
+      </c>
+      <c r="AFH1" t="n">
+        <v>0.1766859620117646</v>
+      </c>
+      <c r="AFI1" t="n">
+        <v>0.1260339162775539</v>
+      </c>
+      <c r="AFJ1" t="n">
+        <v>0.1248644052617458</v>
+      </c>
+      <c r="AFK1" t="n">
+        <v>0.1400536995089015</v>
+      </c>
+      <c r="AFL1" t="n">
+        <v>0.2664539557199311</v>
+      </c>
+      <c r="AFM1" t="n">
+        <v>0.1242898218016942</v>
+      </c>
+      <c r="AFN1" t="n">
+        <v>0.1208635021840395</v>
+      </c>
+      <c r="AFO1" t="n">
+        <v>0.1574399148418545</v>
+      </c>
+      <c r="AFP1" t="n">
+        <v>0.1840830434990733</v>
+      </c>
+      <c r="AFQ1" t="n">
+        <v>0.1293989918297827</v>
+      </c>
+      <c r="AFR1" t="n">
+        <v>0.1424119256620425</v>
+      </c>
+      <c r="AFS1" t="n">
+        <v>0.1707718169829956</v>
+      </c>
+      <c r="AFT1" t="n">
+        <v>0.2540271317111363</v>
+      </c>
+      <c r="AFU1" t="n">
+        <v>0.1445385185889327</v>
+      </c>
+      <c r="AFV1" t="n">
+        <v>0.1976735300654562</v>
+      </c>
+      <c r="AFW1" t="n">
+        <v>0.1297869219835001</v>
+      </c>
+      <c r="AFX1" t="n">
+        <v>0.176498313565916</v>
+      </c>
+      <c r="AFY1" t="n">
+        <v>0.1380314975476565</v>
+      </c>
+      <c r="AFZ1" t="n">
+        <v>0.1764338658917366</v>
+      </c>
+      <c r="AGA1" t="n">
+        <v>0.1628900876668818</v>
+      </c>
+      <c r="AGB1" t="n">
+        <v>0.1747410350014244</v>
+      </c>
+      <c r="AGC1" t="n">
+        <v>0.1548397336095174</v>
+      </c>
+      <c r="AGD1" t="n">
+        <v>0.1331680407229127</v>
+      </c>
+      <c r="AGE1" t="n">
+        <v>0.2501542709305196</v>
+      </c>
+      <c r="AGF1" t="n">
+        <v>0.1704030121593696</v>
+      </c>
+      <c r="AGG1" t="n">
+        <v>0.1655442271557191</v>
+      </c>
+      <c r="AGH1" t="n">
+        <v>0.1186955500272347</v>
+      </c>
+      <c r="AGI1" t="n">
+        <v>0.1720884381211795</v>
+      </c>
+      <c r="AGJ1" t="n">
+        <v>0.1846745070840038</v>
+      </c>
+      <c r="AGK1" t="n">
+        <v>0.1413375866762447</v>
+      </c>
+      <c r="AGL1" t="n">
+        <v>0.1316294920917701</v>
+      </c>
+      <c r="AGM1" t="n">
+        <v>0.1296237610543923</v>
+      </c>
+      <c r="AGN1" t="n">
+        <v>0.1366235525816455</v>
+      </c>
+      <c r="AGO1" t="n">
+        <v>0.1352463155362627</v>
+      </c>
+      <c r="AGP1" t="n">
+        <v>0.1724621279755036</v>
+      </c>
+      <c r="AGQ1" t="n">
+        <v>0.1193815957842848</v>
+      </c>
+      <c r="AGR1" t="n">
+        <v>0.1810304300490119</v>
+      </c>
+      <c r="AGS1" t="n">
+        <v>0.1394632089972686</v>
+      </c>
+      <c r="AGT1" t="n">
+        <v>0.1502392748053291</v>
+      </c>
+      <c r="AGU1" t="n">
+        <v>0.1278037924316038</v>
+      </c>
+      <c r="AGV1" t="n">
+        <v>0.1450668203124215</v>
+      </c>
+      <c r="AGW1" t="n">
+        <v>0.1251201374617741</v>
+      </c>
+      <c r="AGX1" t="n">
+        <v>0.1459334416162568</v>
+      </c>
+      <c r="AGY1" t="n">
+        <v>0.1182533080126268</v>
+      </c>
+      <c r="AGZ1" t="n">
+        <v>0.1751952807498856</v>
+      </c>
+      <c r="AHA1" t="n">
+        <v>0.1662298315773165</v>
+      </c>
+      <c r="AHB1" t="n">
+        <v>0.1260135745365667</v>
+      </c>
+      <c r="AHC1" t="n">
+        <v>0.1259947731064209</v>
+      </c>
+      <c r="AHD1" t="n">
+        <v>0.3266002911557022</v>
+      </c>
+      <c r="AHE1" t="n">
+        <v>0.23653167241183</v>
+      </c>
+      <c r="AHF1" t="n">
+        <v>0.1628906731332953</v>
+      </c>
+      <c r="AHG1" t="n">
+        <v>0.1167922998151142</v>
+      </c>
+      <c r="AHH1" t="n">
+        <v>0.1685367851466786</v>
+      </c>
+      <c r="AHI1" t="n">
+        <v>0.1880608331578903</v>
+      </c>
+      <c r="AHJ1" t="n">
+        <v>0.1761624449203505</v>
+      </c>
+      <c r="AHK1" t="n">
+        <v>0.1261123670813006</v>
+      </c>
+      <c r="AHL1" t="n">
+        <v>0.15786529980022</v>
+      </c>
+      <c r="AHM1" t="n">
+        <v>0.1366659792377455</v>
+      </c>
+      <c r="AHN1" t="n">
+        <v>0.1321115025519387</v>
+      </c>
+      <c r="AHO1" t="n">
+        <v>0.1153664522470114</v>
+      </c>
+      <c r="AHP1" t="n">
+        <v>0.1637537795647463</v>
+      </c>
+      <c r="AHQ1" t="n">
+        <v>0.1835461985881722</v>
+      </c>
+      <c r="AHR1" t="n">
+        <v>0.1135633641476297</v>
+      </c>
+      <c r="AHS1" t="n">
+        <v>0.1196208288273814</v>
+      </c>
+      <c r="AHT1" t="n">
+        <v>0.1213461311673765</v>
+      </c>
+      <c r="AHU1" t="n">
+        <v>0.1486088855445247</v>
+      </c>
+      <c r="AHV1" t="n">
+        <v>0.1142920849570729</v>
+      </c>
+      <c r="AHW1" t="n">
+        <v>0.1195001015874697</v>
+      </c>
+      <c r="AHX1" t="n">
+        <v>0.1209604495809789</v>
+      </c>
+      <c r="AHY1" t="n">
+        <v>0.1795617037367815</v>
+      </c>
+      <c r="AHZ1" t="n">
+        <v>0.1269644682526878</v>
+      </c>
+      <c r="AIA1" t="n">
+        <v>0.1233987187971883</v>
+      </c>
+      <c r="AIB1" t="n">
+        <v>0.1539772296298204</v>
+      </c>
+      <c r="AIC1" t="n">
+        <v>0.1311870742163323</v>
+      </c>
+      <c r="AID1" t="n">
+        <v>0.1685306320282043</v>
+      </c>
+      <c r="AIE1" t="n">
+        <v>0.1099235867193139</v>
+      </c>
+      <c r="AIF1" t="n">
+        <v>0.1646823075015598</v>
+      </c>
+      <c r="AIG1" t="n">
+        <v>0.1140494610455841</v>
+      </c>
+      <c r="AIH1" t="n">
+        <v>0.1502026780396558</v>
+      </c>
+      <c r="AII1" t="n">
+        <v>0.1204369975132357</v>
+      </c>
+      <c r="AIJ1" t="n">
+        <v>0.1514468760077631</v>
+      </c>
+      <c r="AIK1" t="n">
+        <v>0.1118802330524811</v>
+      </c>
+      <c r="AIL1" t="n">
+        <v>0.1290319972549466</v>
+      </c>
+      <c r="AIM1" t="n">
+        <v>0.1431921292778501</v>
+      </c>
+      <c r="AIN1" t="n">
+        <v>0.2743164031133145</v>
+      </c>
+      <c r="AIO1" t="n">
+        <v>0.1128486200972731</v>
+      </c>
+      <c r="AIP1" t="n">
+        <v>0.1254293026656464</v>
+      </c>
+      <c r="AIQ1" t="n">
+        <v>0.1147829877110608</v>
+      </c>
+      <c r="AIR1" t="n">
+        <v>0.2997023489562284</v>
+      </c>
+      <c r="AIS1" t="n">
+        <v>0.1311749880410147</v>
+      </c>
+      <c r="AIT1" t="n">
+        <v>0.1637010968227565</v>
+      </c>
+      <c r="AIU1" t="n">
+        <v>0.1222227164206143</v>
+      </c>
+      <c r="AIV1" t="n">
+        <v>0.3824455920524393</v>
+      </c>
+      <c r="AIW1" t="n">
+        <v>0.1185102611063381</v>
+      </c>
+      <c r="AIX1" t="n">
+        <v>0.1695764584965636</v>
+      </c>
+      <c r="AIY1" t="n">
+        <v>0.1315832329173973</v>
+      </c>
+      <c r="AIZ1" t="n">
+        <v>0.2748963740309982</v>
+      </c>
+      <c r="AJA1" t="n">
+        <v>0.1083125789625356</v>
+      </c>
+      <c r="AJB1" t="n">
+        <v>0.1582055570603146</v>
+      </c>
+      <c r="AJC1" t="n">
+        <v>0.1059036946814037</v>
+      </c>
+      <c r="AJD1" t="n">
+        <v>0.2481487930346535</v>
+      </c>
+      <c r="AJE1" t="n">
+        <v>0.1285223353568105</v>
+      </c>
+      <c r="AJF1" t="n">
+        <v>0.2818192745113607</v>
+      </c>
+      <c r="AJG1" t="n">
+        <v>0.1164072047816419</v>
+      </c>
+      <c r="AJH1" t="n">
+        <v>0.3855999799984513</v>
+      </c>
+      <c r="AJI1" t="n">
+        <v>0.1064523482450204</v>
+      </c>
+      <c r="AJJ1" t="n">
+        <v>0.3295667739063279</v>
+      </c>
+      <c r="AJK1" t="n">
+        <v>0.1138199471500465</v>
+      </c>
+      <c r="AJL1" t="n">
+        <v>0.2171073593194911</v>
+      </c>
+      <c r="AJM1" t="n">
+        <v>0.1205725125672717</v>
+      </c>
+      <c r="AJN1" t="n">
+        <v>0.1800573731861174</v>
+      </c>
+      <c r="AJO1" t="n">
+        <v>0.121582009804991</v>
+      </c>
+      <c r="AJP1" t="n">
+        <v>0.2311221718398924</v>
+      </c>
+      <c r="AJQ1" t="n">
+        <v>0.1166164177068768</v>
+      </c>
+      <c r="AJR1" t="n">
+        <v>0.1371296157512445</v>
+      </c>
+      <c r="AJS1" t="n">
+        <v>0.1340008846653151</v>
+      </c>
+      <c r="AJT1" t="n">
+        <v>0.2089118505680134</v>
+      </c>
+      <c r="AJU1" t="n">
+        <v>0.1401819610498355</v>
+      </c>
+      <c r="AJV1" t="n">
+        <v>0.1195355648775015</v>
+      </c>
+      <c r="AJW1" t="n">
+        <v>0.2027246377856473</v>
+      </c>
+      <c r="AJX1" t="n">
+        <v>0.2196781653193277</v>
+      </c>
+      <c r="AJY1" t="n">
+        <v>0.115433097217144</v>
+      </c>
+      <c r="AJZ1" t="n">
+        <v>0.1348769932176423</v>
+      </c>
+      <c r="AKA1" t="n">
+        <v>0.2144367997435868</v>
+      </c>
+      <c r="AKB1" t="n">
+        <v>0.1959666232211617</v>
+      </c>
+      <c r="AKC1" t="n">
+        <v>0.1240890275604555</v>
+      </c>
+      <c r="AKD1" t="n">
+        <v>0.1181607853732878</v>
+      </c>
+      <c r="AKE1" t="n">
+        <v>0.1358922605189701</v>
+      </c>
+      <c r="AKF1" t="n">
+        <v>0.1420341897420481</v>
+      </c>
+      <c r="AKG1" t="n">
+        <v>0.1142980835679427</v>
+      </c>
+      <c r="AKH1" t="n">
+        <v>0.1333226141753028</v>
+      </c>
+      <c r="AKI1" t="n">
+        <v>0.1269058892839824</v>
+      </c>
+      <c r="AKJ1" t="n">
+        <v>0.1268935389494171</v>
+      </c>
+      <c r="AKK1" t="n">
+        <v>0.1231186319534591</v>
+      </c>
+      <c r="AKL1" t="n">
+        <v>0.1432278986245288</v>
+      </c>
+      <c r="AKM1" t="n">
+        <v>0.1165952997068858</v>
+      </c>
+      <c r="AKN1" t="n">
+        <v>0.1184483505446422</v>
+      </c>
+      <c r="AKO1" t="n">
+        <v>0.1250700065462082</v>
+      </c>
+      <c r="AKP1" t="n">
+        <v>0.1763301829083213</v>
+      </c>
+      <c r="AKQ1" t="n">
+        <v>0.1099766357216882</v>
+      </c>
+      <c r="AKR1" t="n">
+        <v>0.1251831561597631</v>
+      </c>
+      <c r="AKS1" t="n">
+        <v>0.1558680294560407</v>
+      </c>
+      <c r="AKT1" t="n">
+        <v>0.2610648800967397</v>
+      </c>
+      <c r="AKU1" t="n">
+        <v>0.1134140394664718</v>
+      </c>
+      <c r="AKV1" t="n">
+        <v>0.106895155614471</v>
+      </c>
+      <c r="AKW1" t="n">
+        <v>0.1072353949599239</v>
+      </c>
+      <c r="AKX1" t="n">
+        <v>0.1387450198895716</v>
+      </c>
+      <c r="AKY1" t="n">
+        <v>0.1538753808289254</v>
+      </c>
+      <c r="AKZ1" t="n">
+        <v>0.1131525477453782</v>
+      </c>
+      <c r="ALA1" t="n">
+        <v>0.1060908615195451</v>
+      </c>
+      <c r="ALB1" t="n">
+        <v>0.113654082470086</v>
+      </c>
+      <c r="ALC1" t="n">
+        <v>0.1118318734815771</v>
+      </c>
+      <c r="ALD1" t="n">
+        <v>0.1518754646152798</v>
+      </c>
+      <c r="ALE1" t="n">
+        <v>0.1231662397096407</v>
+      </c>
+      <c r="ALF1" t="n">
+        <v>0.1019542798898363</v>
+      </c>
+      <c r="ALG1" t="n">
+        <v>0.1517538331083479</v>
+      </c>
+      <c r="ALH1" t="n">
+        <v>0.1118802073811189</v>
+      </c>
+      <c r="ALI1" t="n">
+        <v>0.1359084199318225</v>
+      </c>
+      <c r="ALJ1" t="n">
+        <v>0.1105535572115819</v>
+      </c>
+      <c r="ALK1" t="n">
+        <v>0.1288592360028734</v>
+      </c>
+      <c r="ALL1" t="n">
+        <v>0.1160044484005801</v>
+      </c>
+      <c r="ALM1" t="n">
+        <v>0.1111176446100348</v>
+      </c>
+      <c r="ALN1" t="n">
+        <v>0.1011663813363274</v>
+      </c>
+      <c r="ALO1" t="n">
+        <v>0.1492659986228399</v>
+      </c>
+      <c r="ALP1" t="n">
+        <v>0.1198069420231504</v>
+      </c>
+      <c r="ALQ1" t="n">
+        <v>0.1176444327272748</v>
+      </c>
+      <c r="ALR1" t="n">
+        <v>0.1256428269648153</v>
+      </c>
+      <c r="ALS1" t="n">
+        <v>0.1957448270326909</v>
+      </c>
+      <c r="ALT1" t="n">
+        <v>0.1148991652125254</v>
+      </c>
+      <c r="ALU1" t="n">
+        <v>0.1570798482624689</v>
+      </c>
+      <c r="ALV1" t="n">
+        <v>0.1743999947994212</v>
+      </c>
+      <c r="ALW1" t="n">
+        <v>0.1335933459219894</v>
+      </c>
+      <c r="ALX1" t="n">
+        <v>0.1475350467038289</v>
+      </c>
+      <c r="ALY1" t="n">
+        <v>0.1156251395066353</v>
+      </c>
+      <c r="ALZ1" t="n">
+        <v>0.1115791631998852</v>
+      </c>
+      <c r="AMA1" t="n">
+        <v>0.1899726530774755</v>
+      </c>
+      <c r="AMB1" t="n">
+        <v>0.1137890454894668</v>
+      </c>
+      <c r="AMC1" t="n">
+        <v>0.1010058071192951</v>
+      </c>
+      <c r="AMD1" t="n">
+        <v>0.1714815172206702</v>
+      </c>
+      <c r="AME1" t="n">
+        <v>0.1308249378333041</v>
+      </c>
+      <c r="AMF1" t="n">
+        <v>0.1182951289417683</v>
+      </c>
+      <c r="AMG1" t="n">
+        <v>0.1140242784165096</v>
+      </c>
+      <c r="AMH1" t="n">
+        <v>0.2473751407112734</v>
+      </c>
+      <c r="AMI1" t="n">
+        <v>0.1859342517867507</v>
+      </c>
+      <c r="AMJ1" t="n">
+        <v>0.18347509368918</v>
+      </c>
+      <c r="AMK1" t="n">
+        <v>0.09996743643574639</v>
+      </c>
+      <c r="AML1" t="n">
+        <v>0.4188016780803501</v>
+      </c>
+      <c r="AMM1" t="n">
+        <v>0.1415661854122684</v>
+      </c>
+      <c r="AMN1" t="n">
+        <v>0.131367436120147</v>
+      </c>
+      <c r="AMO1" t="n">
+        <v>0.1017915464468813</v>
+      </c>
+      <c r="AMP1" t="n">
+        <v>0.2920832704915266</v>
+      </c>
+      <c r="AMQ1" t="n">
+        <v>0.1388766519894895</v>
+      </c>
+      <c r="AMR1" t="n">
+        <v>0.1351650256243651</v>
+      </c>
+      <c r="AMS1" t="n">
+        <v>0.113225065247693</v>
+      </c>
+      <c r="AMT1" t="n">
+        <v>0.1582812473490965</v>
+      </c>
+      <c r="AMU1" t="n">
+        <v>0.1049261335346748</v>
+      </c>
+      <c r="AMV1" t="n">
+        <v>0.2295840673280945</v>
+      </c>
+      <c r="AMW1" t="n">
+        <v>0.1013862869364485</v>
+      </c>
+      <c r="AMX1" t="n">
+        <v>0.1094332786733561</v>
+      </c>
+      <c r="AMY1" t="n">
+        <v>0.1069485878264519</v>
+      </c>
+      <c r="AMZ1" t="n">
+        <v>0.1327393139549858</v>
+      </c>
+      <c r="ANA1" t="n">
+        <v>0.1016827545249253</v>
+      </c>
+      <c r="ANB1" t="n">
+        <v>0.132559753777423</v>
+      </c>
+      <c r="ANC1" t="n">
+        <v>0.1040238183830238</v>
+      </c>
+      <c r="AND1" t="n">
+        <v>0.1279255377173592</v>
+      </c>
+      <c r="ANE1" t="n">
+        <v>0.09990075033511063</v>
+      </c>
+      <c r="ANF1" t="n">
+        <v>0.1094627586244228</v>
+      </c>
+      <c r="ANG1" t="n">
+        <v>0.1009577420214053</v>
+      </c>
+      <c r="ANH1" t="n">
+        <v>0.1484110199174261</v>
+      </c>
+      <c r="ANI1" t="n">
+        <v>0.1185651809693673</v>
+      </c>
+      <c r="ANJ1" t="n">
+        <v>0.1169328122844829</v>
+      </c>
+      <c r="ANK1" t="n">
+        <v>0.128071321668317</v>
+      </c>
+      <c r="ANL1" t="n">
+        <v>0.188111966245791</v>
+      </c>
+      <c r="ANM1" t="n">
+        <v>0.1479613741617863</v>
+      </c>
+      <c r="ANN1" t="n">
+        <v>0.1085208798190428</v>
+      </c>
+      <c r="ANO1" t="n">
+        <v>0.2212557650267648</v>
+      </c>
+      <c r="ANP1" t="n">
+        <v>0.1247852446135479</v>
+      </c>
+      <c r="ANQ1" t="n">
+        <v>0.1164860042867152</v>
+      </c>
+      <c r="ANR1" t="n">
+        <v>0.1158922915242094</v>
+      </c>
+      <c r="ANS1" t="n">
+        <v>0.2423266106247491</v>
+      </c>
+      <c r="ANT1" t="n">
+        <v>0.1035644146835496</v>
+      </c>
+      <c r="ANU1" t="n">
+        <v>0.09800701129683283</v>
+      </c>
+      <c r="ANV1" t="n">
+        <v>0.107585862385979</v>
+      </c>
+      <c r="ANW1" t="n">
+        <v>0.1378721585880256</v>
+      </c>
+      <c r="ANX1" t="n">
+        <v>0.1010617088068208</v>
+      </c>
+      <c r="ANY1" t="n">
+        <v>0.1102364951593868</v>
+      </c>
+      <c r="ANZ1" t="n">
+        <v>0.1681960911582225</v>
+      </c>
+      <c r="AOA1" t="n">
+        <v>0.1058284798281341</v>
+      </c>
+      <c r="AOB1" t="n">
+        <v>0.1022522555574968</v>
+      </c>
+      <c r="AOC1" t="n">
+        <v>0.09674084074876176</v>
+      </c>
+      <c r="AOD1" t="n">
+        <v>0.1060258001089379</v>
+      </c>
+      <c r="AOE1" t="n">
+        <v>0.1363052445321485</v>
+      </c>
+      <c r="AOF1" t="n">
+        <v>0.1223410072198593</v>
+      </c>
+      <c r="AOG1" t="n">
+        <v>0.1086039883890089</v>
+      </c>
+      <c r="AOH1" t="n">
+        <v>0.1279622680722249</v>
+      </c>
+      <c r="AOI1" t="n">
+        <v>0.1082242827290067</v>
+      </c>
+      <c r="AOJ1" t="n">
+        <v>0.1817654229795113</v>
+      </c>
+      <c r="AOK1" t="n">
+        <v>0.09979872330783802</v>
+      </c>
+      <c r="AOL1" t="n">
+        <v>0.216872830384491</v>
+      </c>
+      <c r="AOM1" t="n">
+        <v>0.1339445740371753</v>
+      </c>
+      <c r="AON1" t="n">
+        <v>0.1420387813037581</v>
+      </c>
+      <c r="AOO1" t="n">
+        <v>0.113663057562899</v>
+      </c>
+      <c r="AOP1" t="n">
+        <v>0.1640812125520438</v>
+      </c>
+      <c r="AOQ1" t="n">
+        <v>0.2325662347994262</v>
+      </c>
+      <c r="AOR1" t="n">
+        <v>0.1005685077271428</v>
+      </c>
+      <c r="AOS1" t="n">
+        <v>0.09899252151213224</v>
+      </c>
+      <c r="AOT1" t="n">
+        <v>0.1047292423027927</v>
+      </c>
+      <c r="AOU1" t="n">
+        <v>0.1313512917173792</v>
+      </c>
+      <c r="AOV1" t="n">
+        <v>0.1078902993154173</v>
+      </c>
+      <c r="AOW1" t="n">
+        <v>0.1127154969099782</v>
+      </c>
+      <c r="AOX1" t="n">
+        <v>0.09741397526352136</v>
+      </c>
+      <c r="AOY1" t="n">
+        <v>0.1028183665524846</v>
+      </c>
+      <c r="AOZ1" t="n">
+        <v>0.1715635421643989</v>
+      </c>
+      <c r="APA1" t="n">
+        <v>0.1343225644140227</v>
+      </c>
+      <c r="APB1" t="n">
+        <v>0.113417737016756</v>
+      </c>
+      <c r="APC1" t="n">
+        <v>0.1004138035601524</v>
+      </c>
+      <c r="APD1" t="n">
+        <v>0.2828156526703701</v>
+      </c>
+      <c r="APE1" t="n">
+        <v>0.1245676775944761</v>
+      </c>
+      <c r="APF1" t="n">
+        <v>0.09614259002083067</v>
+      </c>
+      <c r="APG1" t="n">
+        <v>0.1325442021695138</v>
+      </c>
+      <c r="APH1" t="n">
+        <v>0.1640267461990603</v>
+      </c>
+      <c r="API1" t="n">
+        <v>0.1327831621618771</v>
+      </c>
+      <c r="APJ1" t="n">
+        <v>0.1023441295213751</v>
+      </c>
+      <c r="APK1" t="n">
+        <v>0.2344688727226291</v>
+      </c>
+      <c r="APL1" t="n">
+        <v>0.1047572084288228</v>
+      </c>
+      <c r="APM1" t="n">
+        <v>0.108979740607487</v>
+      </c>
+      <c r="APN1" t="n">
+        <v>0.1422924201494197</v>
+      </c>
+      <c r="APO1" t="n">
+        <v>0.2444595304087115</v>
+      </c>
+      <c r="APP1" t="n">
+        <v>0.1207056899340037</v>
+      </c>
+      <c r="APQ1" t="n">
+        <v>0.09540366323411117</v>
+      </c>
+      <c r="APR1" t="n">
+        <v>0.1014872088788086</v>
+      </c>
+      <c r="APS1" t="n">
+        <v>0.1441390548206604</v>
+      </c>
+      <c r="APT1" t="n">
+        <v>0.1033760853561964</v>
+      </c>
+      <c r="APU1" t="n">
+        <v>0.09549658620950822</v>
+      </c>
+      <c r="APV1" t="n">
+        <v>0.09467786826201961</v>
+      </c>
+      <c r="APW1" t="n">
+        <v>0.1276125067316274</v>
+      </c>
+      <c r="APX1" t="n">
+        <v>0.1543204211633087</v>
+      </c>
+      <c r="APY1" t="n">
+        <v>0.1092583874759222</v>
+      </c>
+      <c r="APZ1" t="n">
+        <v>0.1024988096660679</v>
+      </c>
+      <c r="AQA1" t="n">
+        <v>0.154176768866965</v>
+      </c>
+      <c r="AQB1" t="n">
+        <v>0.1020174063352364</v>
+      </c>
+      <c r="AQC1" t="n">
+        <v>0.0962905662820199</v>
+      </c>
+      <c r="AQD1" t="n">
+        <v>0.1221998980286698</v>
+      </c>
+      <c r="AQE1" t="n">
+        <v>0.1189403677634631</v>
+      </c>
+      <c r="AQF1" t="n">
+        <v>0.1020305351439341</v>
+      </c>
+      <c r="AQG1" t="n">
+        <v>0.1077161394048567</v>
+      </c>
+      <c r="AQH1" t="n">
+        <v>0.1006643554478014</v>
+      </c>
+      <c r="AQI1" t="n">
+        <v>0.1265537321557426</v>
+      </c>
+      <c r="AQJ1" t="n">
+        <v>0.1012007013777358</v>
+      </c>
+      <c r="AQK1" t="n">
+        <v>0.09447191452145669</v>
+      </c>
+      <c r="AQL1" t="n">
+        <v>0.09272994184229828</v>
+      </c>
+      <c r="AQM1" t="n">
+        <v>0.0977912067098015</v>
+      </c>
+      <c r="AQN1" t="n">
+        <v>0.1519532003687887</v>
+      </c>
+      <c r="AQO1" t="n">
+        <v>0.09458533058173496</v>
+      </c>
+      <c r="AQP1" t="n">
+        <v>0.09935481079811265</v>
+      </c>
+      <c r="AQQ1" t="n">
+        <v>0.1196035832587074</v>
+      </c>
+      <c r="AQR1" t="n">
+        <v>0.1001292907559982</v>
+      </c>
+      <c r="AQS1" t="n">
+        <v>0.1047868729446204</v>
+      </c>
+      <c r="AQT1" t="n">
+        <v>0.1187440566982791</v>
+      </c>
+      <c r="AQU1" t="n">
+        <v>0.09783921354282607</v>
+      </c>
+      <c r="AQV1" t="n">
+        <v>0.09114628767906725</v>
+      </c>
+      <c r="AQW1" t="n">
+        <v>0.09393725540250203</v>
+      </c>
+      <c r="AQX1" t="n">
+        <v>0.2079655220890223</v>
+      </c>
+      <c r="AQY1" t="n">
+        <v>0.09171441306834188</v>
+      </c>
+      <c r="AQZ1" t="n">
+        <v>0.0955444212318029</v>
+      </c>
+      <c r="ARA1" t="n">
+        <v>0.1115120833526699</v>
+      </c>
+      <c r="ARB1" t="n">
+        <v>0.3248403262451507</v>
+      </c>
+      <c r="ARC1" t="n">
+        <v>0.09691493667823416</v>
+      </c>
+      <c r="ARD1" t="n">
+        <v>0.1202718846602298</v>
+      </c>
+      <c r="ARE1" t="n">
+        <v>0.1247159093855396</v>
+      </c>
+      <c r="ARF1" t="n">
+        <v>0.1981271541717574</v>
+      </c>
+      <c r="ARG1" t="n">
+        <v>0.1155849919413678</v>
+      </c>
+      <c r="ARH1" t="n">
+        <v>0.09482267301632634</v>
+      </c>
+      <c r="ARI1" t="n">
+        <v>0.09171033372136138</v>
+      </c>
+      <c r="ARJ1" t="n">
+        <v>0.1147906620857543</v>
+      </c>
+      <c r="ARK1" t="n">
+        <v>0.09781843331240767</v>
+      </c>
+      <c r="ARL1" t="n">
+        <v>0.09313892884747271</v>
+      </c>
+      <c r="ARM1" t="n">
+        <v>0.09094426127422052</v>
+      </c>
+      <c r="ARN1" t="n">
+        <v>0.193994772640522</v>
+      </c>
+      <c r="ARO1" t="n">
+        <v>0.1566039968404811</v>
+      </c>
+      <c r="ARP1" t="n">
+        <v>0.123374264651182</v>
+      </c>
+      <c r="ARQ1" t="n">
+        <v>0.1097744596237172</v>
+      </c>
+      <c r="ARR1" t="n">
+        <v>0.1131792355143434</v>
+      </c>
+      <c r="ARS1" t="n">
+        <v>0.09692918083652202</v>
+      </c>
+      <c r="ART1" t="n">
+        <v>0.1149418054997343</v>
+      </c>
+      <c r="ARU1" t="n">
+        <v>0.1795939277621645</v>
+      </c>
+      <c r="ARV1" t="n">
+        <v>0.09644900104901241</v>
+      </c>
+      <c r="ARW1" t="n">
+        <v>0.1122015328834883</v>
+      </c>
+      <c r="ARX1" t="n">
+        <v>0.100597027488868</v>
+      </c>
+      <c r="ARY1" t="n">
+        <v>0.1084837680198851</v>
+      </c>
+      <c r="ARZ1" t="n">
+        <v>0.108916901096483</v>
+      </c>
+      <c r="ASA1" t="n">
+        <v>0.09571143287987298</v>
+      </c>
+      <c r="ASB1" t="n">
+        <v>0.1189333359524748</v>
+      </c>
+      <c r="ASC1" t="n">
+        <v>0.1763604544680074</v>
+      </c>
+      <c r="ASD1" t="n">
+        <v>0.1694566802996345</v>
+      </c>
+      <c r="ASE1" t="n">
+        <v>0.1077506726307464</v>
+      </c>
+      <c r="ASF1" t="n">
+        <v>0.09987688318009465</v>
+      </c>
+      <c r="ASG1" t="n">
+        <v>0.1572720880037218</v>
+      </c>
+      <c r="ASH1" t="n">
+        <v>0.1069060492081215</v>
+      </c>
+      <c r="ASI1" t="n">
+        <v>0.1019413177384559</v>
+      </c>
+      <c r="ASJ1" t="n">
+        <v>0.1178856006090102</v>
+      </c>
+      <c r="ASK1" t="n">
+        <v>0.1218008237594214</v>
+      </c>
+      <c r="ASL1" t="n">
+        <v>0.09492321924416525</v>
+      </c>
+      <c r="ASM1" t="n">
+        <v>0.08917371338761217</v>
+      </c>
+      <c r="ASN1" t="n">
+        <v>0.0931819067969685</v>
+      </c>
+      <c r="ASO1" t="n">
+        <v>0.1237200783104752</v>
+      </c>
+      <c r="ASP1" t="n">
+        <v>0.08874789489468868</v>
+      </c>
+      <c r="ASQ1" t="n">
+        <v>0.0942766872552472</v>
+      </c>
+      <c r="ASR1" t="n">
+        <v>0.09188019814295323</v>
+      </c>
+      <c r="ASS1" t="n">
+        <v>0.1724203568367161</v>
+      </c>
+      <c r="AST1" t="n">
+        <v>0.1002479315391328</v>
+      </c>
+      <c r="ASU1" t="n">
+        <v>0.09640802692987048</v>
+      </c>
+      <c r="ASV1" t="n">
+        <v>0.09663572966734323</v>
+      </c>
+      <c r="ASW1" t="n">
+        <v>0.1144196515824929</v>
+      </c>
+      <c r="ASX1" t="n">
+        <v>0.1163047273147458</v>
+      </c>
+      <c r="ASY1" t="n">
+        <v>0.09495761396713838</v>
+      </c>
+      <c r="ASZ1" t="n">
+        <v>0.09131593978357763</v>
+      </c>
+      <c r="ATA1" t="n">
+        <v>0.09186065246304473</v>
+      </c>
+      <c r="ATB1" t="n">
+        <v>0.1948441469979263</v>
+      </c>
+      <c r="ATC1" t="n">
+        <v>0.08741227761586767</v>
+      </c>
+      <c r="ATD1" t="n">
+        <v>0.09165991599485579</v>
+      </c>
+      <c r="ATE1" t="n">
+        <v>0.1192749408501296</v>
+      </c>
+      <c r="ATF1" t="n">
+        <v>0.1134936590076182</v>
+      </c>
+      <c r="ATG1" t="n">
+        <v>0.0880340640618662</v>
+      </c>
+      <c r="ATH1" t="n">
+        <v>0.09078012420496982</v>
+      </c>
+      <c r="ATI1" t="n">
+        <v>0.09053520298581492</v>
+      </c>
+      <c r="ATJ1" t="n">
+        <v>0.1900309979986072</v>
+      </c>
+      <c r="ATK1" t="n">
+        <v>0.1054787455208227</v>
+      </c>
+      <c r="ATL1" t="n">
+        <v>0.09859026074080872</v>
+      </c>
+      <c r="ATM1" t="n">
+        <v>0.08742943530794826</v>
+      </c>
+      <c r="ATN1" t="n">
+        <v>0.2968880695189335</v>
+      </c>
+      <c r="ATO1" t="n">
+        <v>0.1526874163691795</v>
+      </c>
+      <c r="ATP1" t="n">
+        <v>0.1133609301439712</v>
+      </c>
+      <c r="ATQ1" t="n">
+        <v>0.08991340210416572</v>
+      </c>
+      <c r="ATR1" t="n">
+        <v>0.1815600286920409</v>
+      </c>
+      <c r="ATS1" t="n">
+        <v>0.09763877198719989</v>
+      </c>
+      <c r="ATT1" t="n">
+        <v>0.1210880873120962</v>
+      </c>
+      <c r="ATU1" t="n">
+        <v>0.08670625416271599</v>
+      </c>
+      <c r="ATV1" t="n">
+        <v>0.1496707042422338</v>
+      </c>
+      <c r="ATW1" t="n">
+        <v>0.1492929692929059</v>
+      </c>
+      <c r="ATX1" t="n">
+        <v>0.08996235087215436</v>
+      </c>
+      <c r="ATY1" t="n">
+        <v>0.09953873796822371</v>
+      </c>
+      <c r="ATZ1" t="n">
+        <v>0.1608095748516902</v>
+      </c>
+      <c r="AUA1" t="n">
+        <v>0.1916220729237927</v>
+      </c>
+      <c r="AUB1" t="n">
+        <v>0.09773684540724921</v>
+      </c>
+      <c r="AUC1" t="n">
+        <v>0.1179883579981162</v>
+      </c>
+      <c r="AUD1" t="n">
+        <v>0.2434176475439722</v>
+      </c>
+      <c r="AUE1" t="n">
+        <v>0.1209509278582243</v>
+      </c>
+      <c r="AUF1" t="n">
+        <v>0.1121062890961657</v>
+      </c>
+      <c r="AUG1" t="n">
+        <v>0.09384043589894284</v>
+      </c>
+      <c r="AUH1" t="n">
+        <v>0.3991766542748217</v>
+      </c>
+      <c r="AUI1" t="n">
+        <v>0.1753390074051482</v>
+      </c>
+      <c r="AUJ1" t="n">
+        <v>0.09705947706122524</v>
+      </c>
+      <c r="AUK1" t="n">
+        <v>0.09708182676110862</v>
+      </c>
+      <c r="AUL1" t="n">
+        <v>0.2227314686759361</v>
+      </c>
+      <c r="AUM1" t="n">
+        <v>0.1185533310173231</v>
+      </c>
+      <c r="AUN1" t="n">
+        <v>0.1175937400118401</v>
+      </c>
+      <c r="AUO1" t="n">
+        <v>0.09272178174582932</v>
+      </c>
+      <c r="AUP1" t="n">
+        <v>0.3768942307327623</v>
+      </c>
+      <c r="AUQ1" t="n">
+        <v>0.1669990208326632</v>
+      </c>
+      <c r="AUR1" t="n">
+        <v>0.096320570041357</v>
+      </c>
+      <c r="AUS1" t="n">
+        <v>0.1142190875566017</v>
+      </c>
+      <c r="AUT1" t="n">
+        <v>0.2059008616814335</v>
+      </c>
+      <c r="AUU1" t="n">
+        <v>0.1421791796787435</v>
+      </c>
+      <c r="AUV1" t="n">
+        <v>0.1165548217959997</v>
+      </c>
+      <c r="AUW1" t="n">
+        <v>0.09202851317661633</v>
+      </c>
+      <c r="AUX1" t="n">
+        <v>0.1537780980374617</v>
+      </c>
+      <c r="AUY1" t="n">
+        <v>0.1116286871935226</v>
+      </c>
+      <c r="AUZ1" t="n">
+        <v>0.0956209911489917</v>
+      </c>
+      <c r="AVA1" t="n">
+        <v>0.08677404815991417</v>
+      </c>
+      <c r="AVB1" t="n">
+        <v>0.09810620416550329</v>
+      </c>
+      <c r="AVC1" t="n">
+        <v>0.1115189531694935</v>
+      </c>
+      <c r="AVD1" t="n">
+        <v>0.103682107404126</v>
+      </c>
+      <c r="AVE1" t="n">
+        <v>0.09089125441906</v>
+      </c>
+      <c r="AVF1" t="n">
+        <v>0.09018347357447699</v>
+      </c>
+      <c r="AVG1" t="n">
+        <v>0.1105357985635918</v>
+      </c>
+      <c r="AVH1" t="n">
+        <v>0.1112968847160506</v>
+      </c>
+      <c r="AVI1" t="n">
+        <v>0.08605594121696386</v>
+      </c>
+      <c r="AVJ1" t="n">
+        <v>0.08450357662671616</v>
+      </c>
+      <c r="AVK1" t="n">
+        <v>0.08551350080125131</v>
+      </c>
+      <c r="AVL1" t="n">
+        <v>0.1350332204850943</v>
+      </c>
+      <c r="AVM1" t="n">
+        <v>0.08651899781220332</v>
+      </c>
+      <c r="AVN1" t="n">
+        <v>0.09233408058419428</v>
+      </c>
+      <c r="AVO1" t="n">
+        <v>0.08592452991722187</v>
+      </c>
+      <c r="AVP1" t="n">
+        <v>0.1101807086189809</v>
+      </c>
+      <c r="AVQ1" t="n">
+        <v>0.08500105472235936</v>
+      </c>
+      <c r="AVR1" t="n">
+        <v>0.08318042010894716</v>
+      </c>
+      <c r="AVS1" t="n">
+        <v>0.09537430903939818</v>
+      </c>
+      <c r="AVT1" t="n">
+        <v>0.08600766166243716</v>
+      </c>
+      <c r="AVU1" t="n">
+        <v>0.109527556592917</v>
+      </c>
+      <c r="AVV1" t="n">
+        <v>0.08870408538499933</v>
+      </c>
+      <c r="AVW1" t="n">
+        <v>0.08970056636271038</v>
+      </c>
+      <c r="AVX1" t="n">
+        <v>0.09131596192542218</v>
+      </c>
+      <c r="AVY1" t="n">
+        <v>0.08416984066561321</v>
+      </c>
+      <c r="AVZ1" t="n">
+        <v>0.1134304893784195</v>
+      </c>
+      <c r="AWA1" t="n">
+        <v>0.1101030409967644</v>
+      </c>
+      <c r="AWB1" t="n">
+        <v>0.1090644469999052</v>
+      </c>
+      <c r="AWC1" t="n">
+        <v>0.08911720216232261</v>
+      </c>
+      <c r="AWD1" t="n">
+        <v>0.08807038844105501</v>
+      </c>
+      <c r="AWE1" t="n">
+        <v>0.2043760661049812</v>
+      </c>
+      <c r="AWF1" t="n">
+        <v>0.0882529781343984</v>
+      </c>
+      <c r="AWG1" t="n">
+        <v>0.1124865283599392</v>
+      </c>
+      <c r="AWH1" t="n">
+        <v>0.08205270248090636</v>
+      </c>
+      <c r="AWI1" t="n">
+        <v>0.1083862558228194</v>
+      </c>
+      <c r="AWJ1" t="n">
+        <v>0.08177649673571145</v>
+      </c>
+      <c r="AWK1" t="n">
+        <v>0.0897784548765261</v>
+      </c>
+      <c r="AWL1" t="n">
+        <v>0.08760834779763234</v>
+      </c>
+      <c r="AWM1" t="n">
+        <v>0.1079749630754494</v>
+      </c>
+      <c r="AWN1" t="n">
+        <v>0.09048899620181226</v>
+      </c>
+      <c r="AWO1" t="n">
+        <v>0.13550219513596</v>
+      </c>
+      <c r="AWP1" t="n">
+        <v>0.0812582183352782</v>
+      </c>
+      <c r="AWQ1" t="n">
+        <v>0.08261302824181307</v>
+      </c>
+      <c r="AWR1" t="n">
+        <v>0.08514143189723734</v>
+      </c>
+      <c r="AWS1" t="n">
+        <v>0.1563622894988317</v>
+      </c>
+      <c r="AWT1" t="n">
+        <v>0.08711041260168811</v>
+      </c>
+      <c r="AWU1" t="n">
+        <v>0.08991349090746495</v>
+      </c>
+      <c r="AWV1" t="n">
+        <v>0.08722917877382325</v>
+      </c>
+      <c r="AWW1" t="n">
+        <v>0.110874882496356</v>
+      </c>
+      <c r="AWX1" t="n">
+        <v>0.150066761104364</v>
+      </c>
+      <c r="AWY1" t="n">
+        <v>0.1387254552306126</v>
+      </c>
+      <c r="AWZ1" t="n">
+        <v>0.08047739331983207</v>
+      </c>
+      <c r="AXA1" t="n">
+        <v>0.08805455187981272</v>
+      </c>
+      <c r="AXB1" t="n">
+        <v>0.08637832965628012</v>
+      </c>
+      <c r="AXC1" t="n">
+        <v>0.08895065660955427</v>
+      </c>
+      <c r="AXD1" t="n">
+        <v>0.08860023416326222</v>
+      </c>
+      <c r="AXE1" t="n">
+        <v>0.08077962973671086</v>
+      </c>
+      <c r="AXF1" t="n">
+        <v>0.09235973642674376</v>
+      </c>
+      <c r="AXG1" t="n">
+        <v>0.09196768010368689</v>
+      </c>
+      <c r="AXH1" t="n">
+        <v>0.1082105521661975</v>
+      </c>
+      <c r="AXI1" t="n">
+        <v>0.08656431047158356</v>
+      </c>
+      <c r="AXJ1" t="n">
+        <v>0.08562409737773227</v>
+      </c>
+      <c r="AXK1" t="n">
+        <v>0.08531150738462066</v>
+      </c>
+      <c r="AXL1" t="n">
+        <v>0.1746916575061702</v>
+      </c>
+      <c r="AXM1" t="n">
+        <v>0.1089211517520735</v>
+      </c>
+      <c r="AXN1" t="n">
+        <v>0.1074494637834766</v>
+      </c>
+      <c r="AXO1" t="n">
+        <v>0.07946725209955881</v>
+      </c>
+      <c r="AXP1" t="n">
+        <v>0.1069562783694263</v>
+      </c>
+      <c r="AXQ1" t="n">
+        <v>0.1536665739561419</v>
+      </c>
+      <c r="AXR1" t="n">
+        <v>0.1118257354696178</v>
+      </c>
+      <c r="AXS1" t="n">
+        <v>0.0873412507630431</v>
+      </c>
+      <c r="AXT1" t="n">
+        <v>0.08632000106603724</v>
+      </c>
+      <c r="AXU1" t="n">
+        <v>0.131458598392178</v>
+      </c>
+      <c r="AXV1" t="n">
+        <v>0.1022479513813217</v>
+      </c>
+      <c r="AXW1" t="n">
+        <v>0.1061083014390011</v>
+      </c>
+      <c r="AXX1" t="n">
+        <v>0.1119004939488521</v>
+      </c>
+      <c r="AXY1" t="n">
+        <v>0.08548331759861601</v>
+      </c>
+      <c r="AXZ1" t="n">
+        <v>0.07912405498447134</v>
+      </c>
+      <c r="AYA1" t="n">
+        <v>0.08635350605107223</v>
+      </c>
+      <c r="AYB1" t="n">
+        <v>0.1581705847492964</v>
+      </c>
+      <c r="AYC1" t="n">
+        <v>0.107380185744811</v>
+      </c>
+      <c r="AYD1" t="n">
+        <v>0.08485257746539113</v>
+      </c>
+      <c r="AYE1" t="n">
+        <v>0.07859945990082517</v>
+      </c>
+      <c r="AYF1" t="n">
+        <v>0.1129610209840425</v>
+      </c>
+      <c r="AYG1" t="n">
+        <v>0.08460264510160001</v>
+      </c>
+      <c r="AYH1" t="n">
+        <v>0.08121395972206608</v>
+      </c>
+      <c r="AYI1" t="n">
+        <v>0.08541874362498844</v>
+      </c>
+      <c r="AYJ1" t="n">
+        <v>0.09104981765854346</v>
+      </c>
+      <c r="AYK1" t="n">
+        <v>0.07863366366654605</v>
+      </c>
+      <c r="AYL1" t="n">
+        <v>0.08390257950329102</v>
+      </c>
+      <c r="AYM1" t="n">
+        <v>0.08383622897444658</v>
+      </c>
+      <c r="AYN1" t="n">
+        <v>0.1022155614808295</v>
+      </c>
+      <c r="AYO1" t="n">
+        <v>0.08423060729041074</v>
+      </c>
+      <c r="AYP1" t="n">
+        <v>0.08281337662567287</v>
+      </c>
+      <c r="AYQ1" t="n">
+        <v>0.108640618030608</v>
+      </c>
+      <c r="AYR1" t="n">
+        <v>0.1080039249887642</v>
+      </c>
+      <c r="AYS1" t="n">
+        <v>0.07823484368461137</v>
+      </c>
+      <c r="AYT1" t="n">
+        <v>0.09186204385166165</v>
+      </c>
+      <c r="AYU1" t="n">
+        <v>0.1319755474098334</v>
+      </c>
+      <c r="AYV1" t="n">
+        <v>0.08308293119422515</v>
+      </c>
+      <c r="AYW1" t="n">
+        <v>0.1016246306597743</v>
+      </c>
+      <c r="AYX1" t="n">
+        <v>0.08209534537372659</v>
+      </c>
+      <c r="AYY1" t="n">
+        <v>0.1150521766238951</v>
+      </c>
+      <c r="AYZ1" t="n">
+        <v>0.08459589702508531</v>
+      </c>
+      <c r="AZA1" t="n">
+        <v>0.1317077255826793</v>
+      </c>
+      <c r="AZB1" t="n">
+        <v>0.07834116333572466</v>
+      </c>
+      <c r="AZC1" t="n">
+        <v>0.08297648492034856</v>
+      </c>
+      <c r="AZD1" t="n">
+        <v>0.07683204976521622</v>
+      </c>
+      <c r="AZE1" t="n">
+        <v>0.2327995078344091</v>
+      </c>
+      <c r="AZF1" t="n">
+        <v>0.08130262340531093</v>
+      </c>
+      <c r="AZG1" t="n">
+        <v>0.1131349975332753</v>
+      </c>
+      <c r="AZH1" t="n">
+        <v>0.08402183522099786</v>
+      </c>
+      <c r="AZI1" t="n">
+        <v>0.1497804500025583</v>
+      </c>
+      <c r="AZJ1" t="n">
+        <v>0.1002768618285013</v>
+      </c>
+      <c r="AZK1" t="n">
+        <v>0.08966656372112225</v>
+      </c>
+      <c r="AZL1" t="n">
+        <v>0.07629215553075779</v>
+      </c>
+      <c r="AZM1" t="n">
+        <v>0.1147265467852243</v>
+      </c>
+      <c r="AZN1" t="n">
+        <v>0.1299916832346804</v>
+      </c>
+      <c r="AZO1" t="n">
+        <v>0.07785883797659741</v>
+      </c>
+      <c r="AZP1" t="n">
+        <v>0.08200932843269851</v>
+      </c>
+      <c r="AZQ1" t="n">
+        <v>0.1015828600801793</v>
+      </c>
+      <c r="AZR1" t="n">
+        <v>0.08805199737249562</v>
+      </c>
+      <c r="AZS1" t="n">
+        <v>0.0884556761271115</v>
+      </c>
+      <c r="AZT1" t="n">
+        <v>0.07580285475592931</v>
+      </c>
+      <c r="AZU1" t="n">
+        <v>0.1137064508536503</v>
+      </c>
+      <c r="AZV1" t="n">
+        <v>0.08187792328173725</v>
+      </c>
+      <c r="AZW1" t="n">
+        <v>0.08011374391766223</v>
+      </c>
+      <c r="AZX1" t="n">
+        <v>0.08110208312793098</v>
+      </c>
+      <c r="AZY1" t="n">
+        <v>0.08192387476564721</v>
+      </c>
+      <c r="AZZ1" t="n">
+        <v>0.07709521714300002</v>
+      </c>
+      <c r="BAA1" t="n">
+        <v>0.1043942397419106</v>
+      </c>
+      <c r="BAB1" t="n">
+        <v>0.1453858191513699</v>
+      </c>
+      <c r="BAC1" t="n">
+        <v>0.1122983261090489</v>
+      </c>
+      <c r="BAD1" t="n">
+        <v>0.1017536319695437</v>
+      </c>
+      <c r="BAE1" t="n">
+        <v>0.09364564698248103</v>
+      </c>
+      <c r="BAF1" t="n">
+        <v>0.08981919657844084</v>
+      </c>
+      <c r="BAG1" t="n">
+        <v>0.08123224074672496</v>
+      </c>
+      <c r="BAH1" t="n">
+        <v>0.0767351122925883</v>
+      </c>
+      <c r="BAI1" t="n">
+        <v>0.0818185643887596</v>
+      </c>
+      <c r="BAJ1" t="n">
+        <v>0.07609080222916585</v>
+      </c>
+      <c r="BAK1" t="n">
+        <v>0.07738118999649442</v>
+      </c>
+      <c r="BAL1" t="n">
+        <v>0.1011414833794664</v>
+      </c>
+      <c r="BAM1" t="n">
+        <v>0.09748884950967772</v>
+      </c>
+      <c r="BAN1" t="n">
+        <v>0.07564663207235761</v>
+      </c>
+      <c r="BAO1" t="n">
+        <v>0.09300093188387069</v>
+      </c>
+      <c r="BAP1" t="n">
+        <v>0.1862302421851502</v>
+      </c>
+      <c r="BAQ1" t="n">
+        <v>0.0811811123145554</v>
+      </c>
+      <c r="BAR1" t="n">
+        <v>0.0806179983679156</v>
+      </c>
+      <c r="BAS1" t="n">
+        <v>0.1309847287816079</v>
+      </c>
+      <c r="BAT1" t="n">
+        <v>0.09993172650671527</v>
+      </c>
+      <c r="BAU1" t="n">
+        <v>0.09637718823449325</v>
+      </c>
+      <c r="BAV1" t="n">
+        <v>0.1098221437477458</v>
+      </c>
+      <c r="BAW1" t="n">
+        <v>0.1763090297309316</v>
+      </c>
+      <c r="BAX1" t="n">
+        <v>0.07566167296084236</v>
+      </c>
+      <c r="BAY1" t="n">
+        <v>0.08072342265324213</v>
+      </c>
+      <c r="BAZ1" t="n">
+        <v>0.1608348594223717</v>
+      </c>
+      <c r="BBA1" t="n">
+        <v>0.1250618991890742</v>
+      </c>
+      <c r="BBB1" t="n">
+        <v>0.09885441846438497</v>
+      </c>
+      <c r="BBC1" t="n">
+        <v>0.09019716869035008</v>
+      </c>
+      <c r="BBD1" t="n">
+        <v>0.2369197972976043</v>
+      </c>
+      <c r="BBE1" t="n">
+        <v>0.09750791953570045</v>
+      </c>
+      <c r="BBF1" t="n">
+        <v>0.1516385687543521</v>
+      </c>
+      <c r="BBG1" t="n">
+        <v>0.08024492623280631</v>
+      </c>
+      <c r="BBH1" t="n">
+        <v>0.1561664396949326</v>
+      </c>
+      <c r="BBI1" t="n">
+        <v>0.08212567678653439</v>
+      </c>
+      <c r="BBJ1" t="n">
+        <v>0.1910854977506315</v>
+      </c>
+      <c r="BBK1" t="n">
+        <v>0.08146166731805694</v>
+      </c>
+      <c r="BBL1" t="n">
+        <v>0.1026626720076619</v>
+      </c>
+      <c r="BBM1" t="n">
+        <v>0.09042666840422575</v>
+      </c>
+      <c r="BBN1" t="n">
+        <v>0.1001435075707616</v>
+      </c>
+      <c r="BBO1" t="n">
+        <v>0.07381177202530997</v>
+      </c>
+      <c r="BBP1" t="n">
+        <v>0.07910416520463698</v>
+      </c>
+      <c r="BBQ1" t="n">
+        <v>0.07549397227056549</v>
+      </c>
+      <c r="BBR1" t="n">
+        <v>0.09746831168221311</v>
+      </c>
+      <c r="BBS1" t="n">
+        <v>0.08170602578699064</v>
+      </c>
+      <c r="BBT1" t="n">
+        <v>0.0745465727206254</v>
+      </c>
+      <c r="BBU1" t="n">
+        <v>0.08989797455199902</v>
+      </c>
+      <c r="BBV1" t="n">
+        <v>0.07429424633457463</v>
+      </c>
+      <c r="BBW1" t="n">
+        <v>0.1272862459929095</v>
+      </c>
+      <c r="BBX1" t="n">
+        <v>0.09372063589654206</v>
+      </c>
+      <c r="BBY1" t="n">
+        <v>0.1212577316245609</v>
+      </c>
+      <c r="BBZ1" t="n">
+        <v>0.08021018438291454</v>
+      </c>
+      <c r="BCA1" t="n">
+        <v>0.0807719916637626</v>
+      </c>
+      <c r="BCB1" t="n">
+        <v>0.1056129067345921</v>
+      </c>
+      <c r="BCC1" t="n">
+        <v>0.08930849812272672</v>
+      </c>
+      <c r="BCD1" t="n">
+        <v>0.07374057170525747</v>
+      </c>
+      <c r="BCE1" t="n">
+        <v>0.07277044263446994</v>
+      </c>
+      <c r="BCF1" t="n">
+        <v>0.09292794114092535</v>
+      </c>
+      <c r="BCG1" t="n">
+        <v>0.08146040470933372</v>
+      </c>
+      <c r="BCH1" t="n">
+        <v>0.08587728420250103</v>
+      </c>
+      <c r="BCI1" t="n">
+        <v>0.07510919036762395</v>
+      </c>
+      <c r="BCJ1" t="n">
+        <v>0.07332064873440569</v>
+      </c>
+      <c r="BCK1" t="n">
+        <v>0.07707557981354646</v>
+      </c>
+      <c r="BCL1" t="n">
+        <v>0.07294536510145211</v>
+      </c>
+      <c r="BCM1" t="n">
+        <v>0.08493830584380815</v>
+      </c>
+      <c r="BCN1" t="n">
+        <v>0.0766931231998797</v>
+      </c>
+      <c r="BCO1" t="n">
+        <v>0.08666571589038904</v>
+      </c>
+      <c r="BCP1" t="n">
+        <v>0.09446563857519538</v>
+      </c>
+      <c r="BCQ1" t="n">
+        <v>0.07426385171465683</v>
+      </c>
+      <c r="BCR1" t="n">
+        <v>0.07270633912513962</v>
+      </c>
+      <c r="BCS1" t="n">
+        <v>0.09669008499711011</v>
+      </c>
+      <c r="BCT1" t="n">
+        <v>0.09821276301708882</v>
+      </c>
+      <c r="BCU1" t="n">
+        <v>0.07412048878306358</v>
+      </c>
+      <c r="BCV1" t="n">
+        <v>0.07884332062660317</v>
+      </c>
+      <c r="BCW1" t="n">
+        <v>0.07545710612089655</v>
+      </c>
+      <c r="BCX1" t="n">
+        <v>0.09380657828832051</v>
+      </c>
+      <c r="BCY1" t="n">
+        <v>0.09190409824278351</v>
+      </c>
+      <c r="BCZ1" t="n">
+        <v>0.07225026118316441</v>
+      </c>
+      <c r="BDA1" t="n">
+        <v>0.07655471861797376</v>
+      </c>
+      <c r="BDB1" t="n">
+        <v>0.09759125562858718</v>
+      </c>
+      <c r="BDC1" t="n">
+        <v>0.1574960414712243</v>
+      </c>
+      <c r="BDD1" t="n">
+        <v>0.07603744999500198</v>
+      </c>
+      <c r="BDE1" t="n">
+        <v>0.08459508720066719</v>
+      </c>
+      <c r="BDF1" t="n">
+        <v>0.09319599828843302</v>
+      </c>
+      <c r="BDG1" t="n">
+        <v>0.09120331610113344</v>
+      </c>
+      <c r="BDH1" t="n">
+        <v>0.07191410811877796</v>
+      </c>
+      <c r="BDI1" t="n">
+        <v>0.07129817369901514</v>
+      </c>
+      <c r="BDJ1" t="n">
+        <v>0.07111735275677367</v>
+      </c>
+      <c r="BDK1" t="n">
+        <v>0.07299415440767298</v>
+      </c>
+      <c r="BDL1" t="n">
+        <v>0.09796505691262961</v>
+      </c>
+      <c r="BDM1" t="n">
+        <v>0.07453112735430312</v>
+      </c>
+      <c r="BDN1" t="n">
+        <v>0.07432456894731003</v>
+      </c>
+      <c r="BDO1" t="n">
+        <v>0.08834586738598706</v>
+      </c>
+      <c r="BDP1" t="n">
+        <v>0.07122640306712613</v>
+      </c>
+      <c r="BDQ1" t="n">
+        <v>0.09467065977344248</v>
+      </c>
+      <c r="BDR1" t="n">
+        <v>0.08387202767332287</v>
+      </c>
+      <c r="BDS1" t="n">
+        <v>0.08819639995216978</v>
+      </c>
+      <c r="BDT1" t="n">
+        <v>0.08413637624655601</v>
+      </c>
+      <c r="BDU1" t="n">
+        <v>0.1716215013995129</v>
+      </c>
+      <c r="BDV1" t="n">
+        <v>0.1322356643590428</v>
+      </c>
+      <c r="BDW1" t="n">
+        <v>0.07227484547611888</v>
+      </c>
+      <c r="BDX1" t="n">
+        <v>0.07699200272767003</v>
+      </c>
+      <c r="BDY1" t="n">
+        <v>0.2425843599813481</v>
+      </c>
+      <c r="BDZ1" t="n">
+        <v>0.08330031320489865</v>
+      </c>
+      <c r="BEA1" t="n">
+        <v>0.08641160181401493</v>
+      </c>
+      <c r="BEB1" t="n">
+        <v>0.09726573509266664</v>
+      </c>
+      <c r="BEC1" t="n">
+        <v>0.1245351000365195</v>
+      </c>
+      <c r="BED1" t="n">
+        <v>0.08657403128926176</v>
+      </c>
+      <c r="BEE1" t="n">
+        <v>0.1518218600175111</v>
+      </c>
+      <c r="BEF1" t="n">
+        <v>0.07634411434111758</v>
+      </c>
+      <c r="BEG1" t="n">
+        <v>0.08438576772156246</v>
+      </c>
+      <c r="BEH1" t="n">
+        <v>0.1365460513687738</v>
+      </c>
+      <c r="BEI1" t="n">
+        <v>0.08540188400306313</v>
+      </c>
+      <c r="BEJ1" t="n">
+        <v>0.121837193199795</v>
+      </c>
+      <c r="BEK1" t="n">
+        <v>0.1361090436098953</v>
+      </c>
+      <c r="BEL1" t="n">
+        <v>0.1066212905268584</v>
+      </c>
+      <c r="BEM1" t="n">
+        <v>0.08381787651793564</v>
+      </c>
+      <c r="BEN1" t="n">
+        <v>0.1602473144486577</v>
+      </c>
+      <c r="BEO1" t="n">
+        <v>0.1135741774934382</v>
+      </c>
+      <c r="BEP1" t="n">
+        <v>0.07731345116705174</v>
+      </c>
+      <c r="BEQ1" t="n">
+        <v>0.07200226129716164</v>
+      </c>
+      <c r="BER1" t="n">
+        <v>0.09602950656169076</v>
+      </c>
+      <c r="BES1" t="n">
+        <v>0.1253757704763695</v>
+      </c>
+      <c r="BET1" t="n">
+        <v>0.08041243713670784</v>
+      </c>
+      <c r="BEU1" t="n">
+        <v>0.1125284506682219</v>
+      </c>
+      <c r="BEV1" t="n">
+        <v>0.1579690045657705</v>
+      </c>
+      <c r="BEW1" t="n">
+        <v>0.254373581037621</v>
+      </c>
+      <c r="BEX1" t="n">
+        <v>0.0962620196566758</v>
+      </c>
+      <c r="BEY1" t="n">
+        <v>0.07166408549571458</v>
+      </c>
+      <c r="BEZ1" t="n">
+        <v>0.2388689040109564</v>
+      </c>
+      <c r="BFA1" t="n">
+        <v>0.3208315953937135</v>
+      </c>
+      <c r="BFB1" t="n">
+        <v>0.1233410244190294</v>
+      </c>
+      <c r="BFC1" t="n">
+        <v>0.07020317933832214</v>
+      </c>
+      <c r="BFD1" t="n">
+        <v>0.1537444151291645</v>
+      </c>
+      <c r="BFE1" t="n">
+        <v>0.2407687954036641</v>
+      </c>
+      <c r="BFF1" t="n">
+        <v>0.09546941384330807</v>
+      </c>
+      <c r="BFG1" t="n">
+        <v>0.07478850425651</v>
+      </c>
+      <c r="BFH1" t="n">
+        <v>0.09436283316980978</v>
+      </c>
+      <c r="BFI1" t="n">
+        <v>0.3018534008923982</v>
+      </c>
+      <c r="BFJ1" t="n">
+        <v>0.103456644814198</v>
+      </c>
+      <c r="BFK1" t="n">
+        <v>0.08371751102888793</v>
+      </c>
+      <c r="BFL1" t="n">
+        <v>0.07715783127957739</v>
+      </c>
+      <c r="BFM1" t="n">
+        <v>0.2296618184167839</v>
+      </c>
+      <c r="BFN1" t="n">
+        <v>0.1387474800258444</v>
+      </c>
+      <c r="BFO1" t="n">
+        <v>0.1267764046994895</v>
+      </c>
+      <c r="BFP1" t="n">
+        <v>0.09516608631225788</v>
+      </c>
+      <c r="BFQ1" t="n">
+        <v>0.1179652032866932</v>
+      </c>
+      <c r="BFR1" t="n">
+        <v>0.1025677762629247</v>
+      </c>
+      <c r="BFS1" t="n">
+        <v>0.2496590852471931</v>
+      </c>
+      <c r="BFT1" t="n">
+        <v>0.07317815145743824</v>
+      </c>
+      <c r="BFU1" t="n">
+        <v>0.08284563433247656</v>
+      </c>
+      <c r="BFV1" t="n">
+        <v>0.1184518325731654</v>
+      </c>
+      <c r="BFW1" t="n">
+        <v>0.1241209278055638</v>
+      </c>
+      <c r="BFX1" t="n">
+        <v>0.07053769465589509</v>
+      </c>
+      <c r="BFY1" t="n">
+        <v>0.08314772987863168</v>
+      </c>
+      <c r="BFZ1" t="n">
+        <v>0.1017216683798712</v>
+      </c>
+      <c r="BGA1" t="n">
+        <v>0.08297567993059736</v>
+      </c>
+      <c r="BGB1" t="n">
+        <v>0.08147664865644916</v>
+      </c>
+      <c r="BGC1" t="n">
+        <v>0.06937995505638529</v>
+      </c>
+      <c r="BGD1" t="n">
+        <v>0.09769581778245487</v>
+      </c>
+      <c r="BGE1" t="n">
+        <v>0.1229953842343105</v>
+      </c>
+      <c r="BGF1" t="n">
+        <v>0.08004323609097037</v>
+      </c>
+      <c r="BGG1" t="n">
+        <v>0.07191909834460075</v>
+      </c>
+      <c r="BGH1" t="n">
+        <v>0.1326223119517037</v>
+      </c>
+      <c r="BGI1" t="n">
+        <v>0.09561524791385533</v>
+      </c>
+      <c r="BGJ1" t="n">
+        <v>0.07367044337623507</v>
+      </c>
+      <c r="BGK1" t="n">
+        <v>0.08475436742147707</v>
+      </c>
+      <c r="BGL1" t="n">
+        <v>0.161690942225667</v>
+      </c>
+      <c r="BGM1" t="n">
+        <v>0.07328220062305375</v>
+      </c>
+      <c r="BGN1" t="n">
+        <v>0.07422855671627626</v>
+      </c>
+      <c r="BGO1" t="n">
+        <v>0.07120499612129606</v>
+      </c>
+      <c r="BGP1" t="n">
+        <v>0.090362371312717</v>
+      </c>
+      <c r="BGQ1" t="n">
+        <v>0.07606335847246617</v>
+      </c>
+      <c r="BGR1" t="n">
+        <v>0.09368891326702004</v>
+      </c>
+      <c r="BGS1" t="n">
+        <v>0.07241192719678355</v>
+      </c>
+      <c r="BGT1" t="n">
+        <v>0.07274167662832005</v>
+      </c>
+      <c r="BGU1" t="n">
+        <v>0.09221236510924413</v>
+      </c>
+      <c r="BGV1" t="n">
+        <v>0.1612597143343002</v>
+      </c>
+      <c r="BGW1" t="n">
+        <v>0.09614868500171397</v>
+      </c>
+      <c r="BGX1" t="n">
+        <v>0.07588115580908969</v>
+      </c>
+      <c r="BGY1" t="n">
+        <v>0.1231799541960316</v>
+      </c>
+      <c r="BGZ1" t="n">
+        <v>0.2749532675117963</v>
+      </c>
+      <c r="BHA1" t="n">
+        <v>0.170960393217959</v>
+      </c>
+      <c r="BHB1" t="n">
+        <v>0.06734787360440081</v>
+      </c>
+      <c r="BHC1" t="n">
+        <v>0.09156331995951277</v>
+      </c>
+      <c r="BHD1" t="n">
+        <v>0.278346848502933</v>
+      </c>
+      <c r="BHE1" t="n">
+        <v>0.09500818499595633</v>
+      </c>
+      <c r="BHF1" t="n">
+        <v>0.08190296339260096</v>
+      </c>
+      <c r="BHG1" t="n">
+        <v>0.1210566051564148</v>
+      </c>
+      <c r="BHH1" t="n">
+        <v>0.3209166701004846</v>
+      </c>
+      <c r="BHI1" t="n">
+        <v>0.0718327844338007</v>
+      </c>
+      <c r="BHJ1" t="n">
+        <v>0.06703454969219341</v>
+      </c>
+      <c r="BHK1" t="n">
+        <v>0.1023300317159985</v>
+      </c>
+      <c r="BHL1" t="n">
+        <v>0.1514855726101834</v>
+      </c>
+      <c r="BHM1" t="n">
+        <v>0.07037002472779932</v>
+      </c>
+      <c r="BHN1" t="n">
+        <v>0.07538115332183926</v>
+      </c>
+      <c r="BHO1" t="n">
+        <v>0.1281994952250239</v>
+      </c>
+      <c r="BHP1" t="n">
+        <v>0.09356816975970615</v>
+      </c>
+      <c r="BHQ1" t="n">
+        <v>0.07401632653163161</v>
+      </c>
+      <c r="BHR1" t="n">
+        <v>0.07209675287312646</v>
+      </c>
+      <c r="BHS1" t="n">
+        <v>0.1014474647752277</v>
+      </c>
+      <c r="BHT1" t="n">
+        <v>0.08138459761642976</v>
+      </c>
+      <c r="BHU1" t="n">
+        <v>0.06813800122996415</v>
+      </c>
+      <c r="BHV1" t="n">
+        <v>0.08114979642632442</v>
+      </c>
+      <c r="BHW1" t="n">
+        <v>0.1208399495547346</v>
+      </c>
+      <c r="BHX1" t="n">
+        <v>0.09303727778917793</v>
+      </c>
+      <c r="BHY1" t="n">
+        <v>0.07144164387426027</v>
+      </c>
+      <c r="BHZ1" t="n">
+        <v>0.1027460512077993</v>
+      </c>
+      <c r="BIA1" t="n">
+        <v>0.1473905864690892</v>
+      </c>
+      <c r="BIB1" t="n">
+        <v>0.07800644313492805</v>
+      </c>
+      <c r="BIC1" t="n">
+        <v>0.06638693797344591</v>
+      </c>
+      <c r="BID1" t="n">
+        <v>0.1458040197518366</v>
+      </c>
+      <c r="BIE1" t="n">
+        <v>0.09775056092350055</v>
+      </c>
+      <c r="BIF1" t="n">
+        <v>0.06623274422556964</v>
+      </c>
+      <c r="BIG1" t="n">
+        <v>0.07768817945243531</v>
+      </c>
+      <c r="BIH1" t="n">
+        <v>0.2136873754940974</v>
+      </c>
+      <c r="BII1" t="n">
+        <v>0.08041888824721566</v>
+      </c>
+      <c r="BIJ1" t="n">
+        <v>0.08086755416086511</v>
+      </c>
+      <c r="BIK1" t="n">
+        <v>0.1321890322314928</v>
+      </c>
+      <c r="BIL1" t="n">
+        <v>0.2648721095288764</v>
+      </c>
+      <c r="BIM1" t="n">
+        <v>0.07163382393581773</v>
+      </c>
+      <c r="BIN1" t="n">
+        <v>0.06596921364894744</v>
+      </c>
+      <c r="BIO1" t="n">
+        <v>0.2583378949117814</v>
+      </c>
+      <c r="BIP1" t="n">
+        <v>0.2041663957004694</v>
+      </c>
+      <c r="BIQ1" t="n">
+        <v>0.07464211804467334</v>
+      </c>
+      <c r="BIR1" t="n">
+        <v>0.07235833106871289</v>
       </c>
     </row>
   </sheetData>
